--- a/fungal_BGCs/fungal_BGCs.xlsx
+++ b/fungal_BGCs/fungal_BGCs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymatsuda/Dropbox/CityU Research/Manuscripts/42. Fungal onoceroids論文/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymatsuda/Documents/GitHub/funbgcex-data/fungal_BGCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82397205-D60B-F344-99DC-7266BE59B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD47689-4A5E-7144-BB45-F2F0A852F05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{262B9C92-DFEA-AD46-B5ED-DE92F47A4C4A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Table S10" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table S10'!$A$2:$E$744</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table S10'!$A$2:$E$847</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="2226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="2574">
   <si>
     <t>FBGC00001</t>
     <phoneticPr fontId="1"/>
@@ -8215,6 +8215,1269 @@
   </si>
   <si>
     <t>Organism</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPROT00028</t>
+  </si>
+  <si>
+    <t>guanacastepene U</t>
+  </si>
+  <si>
+    <t>FPROT00029</t>
+  </si>
+  <si>
+    <t>FPROT00030</t>
+  </si>
+  <si>
+    <t>epipyrone A</t>
+  </si>
+  <si>
+    <t>FPROT00031</t>
+  </si>
+  <si>
+    <t>Cercospora sp. JNU001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPROT00033</t>
+  </si>
+  <si>
+    <t>FPROT00034</t>
+  </si>
+  <si>
+    <t>FPROT00035</t>
+  </si>
+  <si>
+    <t>Candolleomyces candolleanus</t>
+  </si>
+  <si>
+    <t>panepoxydone</t>
+  </si>
+  <si>
+    <t>Panus rudis CGMCC 5.34</t>
+  </si>
+  <si>
+    <t>Epicoccum nigrum AN34-3</t>
+  </si>
+  <si>
+    <t>beticolin 1</t>
+  </si>
+  <si>
+    <t>Cercospora sp. JNU001</t>
+  </si>
+  <si>
+    <t>FPROT00032</t>
+  </si>
+  <si>
+    <t>clitopilene</t>
+  </si>
+  <si>
+    <t>Clitopilus passeckerianus DSM 1602</t>
+  </si>
+  <si>
+    <t>isopentalenene</t>
+  </si>
+  <si>
+    <t>ascochin</t>
+  </si>
+  <si>
+    <t>Paraphaeosphaeria sp. SJC-F9</t>
+  </si>
+  <si>
+    <t>FR901379</t>
+  </si>
+  <si>
+    <t>Coleophoma empetri</t>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.3c01924</t>
+  </si>
+  <si>
+    <t>10.1002/anie.202313817</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.3c04259</t>
+  </si>
+  <si>
+    <t>10.1002/anie.202208772</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1039/d4cc02286f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c01193</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1186/s12934-023-02050-0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00661</t>
+  </si>
+  <si>
+    <t>homomonoceroid A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus homomorphus CBS 101889</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.26434/chemrxiv-2023-f0z8n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00662</t>
+  </si>
+  <si>
+    <t>fumionoceroid C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00663</t>
+  </si>
+  <si>
+    <t>alliaonoceroid D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus alliaceus CBS 536.65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00664</t>
+  </si>
+  <si>
+    <t>protubonine B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.3c00274</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00665</t>
+  </si>
+  <si>
+    <t>pyrrolotetramate polyene with bicyclo[4.2.2]deca-2,5,8-triene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sphaerosporella brunnea Sb_GMNB300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/jacs.3c02380</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00666</t>
+  </si>
+  <si>
+    <t>nornidulin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus sp. SCSIO SX7S7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1016/j.apsb.2023.05.036</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00667</t>
+  </si>
+  <si>
+    <t>isaridins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beauveria felina SYSU-MS7908</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jafc.3c02415</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00668</t>
+  </si>
+  <si>
+    <t>felinoid A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1016/j.bioorg.2023.106715</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00669</t>
+  </si>
+  <si>
+    <t>cordycepin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.21203/rs.3.rs-3210277/v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00670</t>
+  </si>
+  <si>
+    <t>mollicellin Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ovatospora sp. SCSIO SY280D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.3c00609</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00671</t>
+  </si>
+  <si>
+    <t>azonazine A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus insulicola 088708a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/anie.202311266</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00672</t>
+  </si>
+  <si>
+    <t>uscandidusin A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.3c02234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00673</t>
+  </si>
+  <si>
+    <t>alkylresorcinol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fusarium scirpi CGMCC 3.3656</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1016/j.cclet.2023.108968</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00674</t>
+  </si>
+  <si>
+    <t>cosmosporaside C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fusarium tricinctum MPI-SDFR-AT-0068</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/anie.202308887</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00675</t>
+  </si>
+  <si>
+    <t>similanpyrone B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Simplicillium lamellicola HDN13-430</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.3390/md21090490</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00676</t>
+  </si>
+  <si>
+    <t>phomactins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phoma sp. ATCC 74077</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/anie.202312996</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00677</t>
+  </si>
+  <si>
+    <t>macrophasetin C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.3389/fmicb.2022.1056392</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00678</t>
+  </si>
+  <si>
+    <t>multiforisin H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hypomontagnella monticulosa MUCL 54604</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1039/d3cc04758j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00679</t>
+  </si>
+  <si>
+    <t>islandic acid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00680</t>
+  </si>
+  <si>
+    <t>calcapyrone A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.3c00685</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00681</t>
+  </si>
+  <si>
+    <t>sartorypyrones</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1039/d3sc02226a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00682</t>
+  </si>
+  <si>
+    <t>treconorin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trichoderma simmonsii GH-Sj1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/jacs.3c10179</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00683</t>
+  </si>
+  <si>
+    <t>roseopurpurin C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus uvarum CBS 121591</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1073/pnas.2310522120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00684</t>
+  </si>
+  <si>
+    <t>sporogen AO-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1039/d3sc04172g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00685</t>
+  </si>
+  <si>
+    <t>hypoxylan A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hypoxylon rickii</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00686</t>
+  </si>
+  <si>
+    <t>eremoxylarin D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xylaria hypoxylon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00687</t>
+  </si>
+  <si>
+    <t>drimane-phthalide derivative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Annulohypoxylon moriforme CBS 123579</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1039/D3SC06001B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00688</t>
+  </si>
+  <si>
+    <t>sesquiterpenoid-phthalide derivative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Colletotrichum orchidophilum IMI 309357</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00689</t>
+  </si>
+  <si>
+    <t>chromanol derivatives</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus pseudotamarii CBS 117625</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00690</t>
+  </si>
+  <si>
+    <t>3,6-dialkyl-alpha-pyrone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pestalotiopsis sp. BRIP 39872</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1016/j.tetlet.2023.154865</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00691</t>
+  </si>
+  <si>
+    <t>2,4-dihydroxy-3,5,6-trimethylbenzaldehyde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/ol303328t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00692</t>
+  </si>
+  <si>
+    <t>acresorbicillinol C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hapsidospora chrysogenum ATCC 11550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.3390/jof8050530</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00693</t>
+  </si>
+  <si>
+    <t>prehelminthosporol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bipolaris sorokiniana ND90Pr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.3c04005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00694</t>
+  </si>
+  <si>
+    <t>Valsa sordida Cn-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00695</t>
+  </si>
+  <si>
+    <t>C14-C15 dihydroxyl sativene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fusarium marophilum CGMCC 3.4487</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00696</t>
+  </si>
+  <si>
+    <t>unguisin J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus heteromorphus CBS 117.55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.3762/bjoc.20.32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00697</t>
+  </si>
+  <si>
+    <t>fusarilin A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fusarium decemcellulare NRRL 13412</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/jacs.4c02142</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00698</t>
+  </si>
+  <si>
+    <t>3-nitropropanoic acid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1101/2024.02.22.581660</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00699</t>
+  </si>
+  <si>
+    <t>malonic semialdehyde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Metarhizium robertsii ARSEF 2575</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00700</t>
+  </si>
+  <si>
+    <t>tetrahydropyrenophorol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exserohilum sp. SCSIO 41009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c00008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00701</t>
+  </si>
+  <si>
+    <t>thielavin B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parachaetomium carinthiacum CBS 665.82</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/anie.202402663</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00702</t>
+  </si>
+  <si>
+    <t>gyrophoric acid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Humicola grisea CBS 459.76</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00703</t>
+  </si>
+  <si>
+    <t>sativenediol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bipolaris sp. L1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.3c01161</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00704</t>
+  </si>
+  <si>
+    <t>FBGC00705</t>
+  </si>
+  <si>
+    <t>arizolidine B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Penicillium arizonense CBS 141311</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/anie.202401324</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00706</t>
+  </si>
+  <si>
+    <t>campesine G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus campestris IBT 28561</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/anie.202404000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00707</t>
+  </si>
+  <si>
+    <t>stromemycin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/jacs.3c12895</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00708</t>
+  </si>
+  <si>
+    <t>Talaromyces pinophilus Y-94</t>
+  </si>
+  <si>
+    <t>FBGC00709</t>
+  </si>
+  <si>
+    <t>phaeomoniecin D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phaeomoniella chlamydospora UCRPC4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00710</t>
+  </si>
+  <si>
+    <t>deoxyneofusapyrone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Verticillium dahliae VDG2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00711</t>
+  </si>
+  <si>
+    <t>anhydrosclerotinin B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/smtd.202400107</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00712</t>
+  </si>
+  <si>
+    <t>farnesyltrypamide A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Talaromyces variabilis H1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c00714</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00713</t>
+  </si>
+  <si>
+    <t>clavilactone A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ampulloclitocybe clavipes CBS 126.44</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acscatal.3c04085</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00714</t>
+  </si>
+  <si>
+    <t>Flammulina velutipes KACC42780</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jafc.4c01636</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00715</t>
+  </si>
+  <si>
+    <t>alpha-cedrene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00716</t>
+  </si>
+  <si>
+    <t>alpha-cadinol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00717</t>
+  </si>
+  <si>
+    <t>FBGC00718</t>
+  </si>
+  <si>
+    <t>alpha-cubebene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00719</t>
+  </si>
+  <si>
+    <t>FBGC00720</t>
+  </si>
+  <si>
+    <t>3-oxo-axenol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00721</t>
+  </si>
+  <si>
+    <t>beta-caryophyllene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00722</t>
+  </si>
+  <si>
+    <t>beta-cubebene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00723</t>
+  </si>
+  <si>
+    <t>gamma-muurolene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00724</t>
+  </si>
+  <si>
+    <t>alpha-barbatene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00725</t>
+  </si>
+  <si>
+    <t>FBGC00726</t>
+  </si>
+  <si>
+    <t>moserinol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Neoarthrinium moseri CBS 164.80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1038/s41467-024-48771-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00727</t>
+  </si>
+  <si>
+    <t>fuscoatroside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Humicola fuscoatra NRRL 22980</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/jacs.4c02415</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00728</t>
+  </si>
+  <si>
+    <t>1,8-dihydroxynaphthalene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berkleasmium sp. Dzf12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/anie.202401979</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00729</t>
+  </si>
+  <si>
+    <t>FBGC00730</t>
+  </si>
+  <si>
+    <t>palmarumycin C12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00731</t>
+  </si>
+  <si>
+    <t>emerindanol B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus sp. XL-029</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c01272</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00732</t>
+  </si>
+  <si>
+    <t>asperdimycin A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus minisclerotigenes CBS 117635</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/advs.202310018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00733</t>
+  </si>
+  <si>
+    <t>eurocristatine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00734</t>
+  </si>
+  <si>
+    <t>aspergilazine A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus taichungensis IBT 19404</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/advs.202310018</t>
+  </si>
+  <si>
+    <t>FBGC00735</t>
+  </si>
+  <si>
+    <t>(+)-iso-naseseazine B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00736</t>
+  </si>
+  <si>
+    <t>asperazine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus tubingensis CBS 134.48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00737</t>
+  </si>
+  <si>
+    <t>penindolenes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Penicillium brocae MA-231</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/anie.202403963</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00738</t>
+  </si>
+  <si>
+    <t>homomorphin E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.4c00113</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00739</t>
+  </si>
+  <si>
+    <t>terrecyclic acid A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus terreus ATCC 20516</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1039/d4sc01208a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00740</t>
+  </si>
+  <si>
+    <t>cytosporone E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gnomonia sp. CS-52-56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/jacs.3c14066</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00741</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Corynespora cassiicola JCM 23.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00742</t>
+  </si>
+  <si>
+    <t>emindole DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00743</t>
+  </si>
+  <si>
+    <t>FBGC00744</t>
+  </si>
+  <si>
+    <t>alternapyrones</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apiospora arundinis ZSDS1-F3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.4c00393</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00745</t>
+  </si>
+  <si>
+    <t>phenochalasin B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Peroneutypa sp. M16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.4c00516</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00746</t>
+  </si>
+  <si>
+    <t>scoparasin B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eutypella sp. D-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1080/21501203.2024.2341648</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00747</t>
+  </si>
+  <si>
+    <t>cerulenin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sarocladium attenuatum MST-FP2084</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1002/anie.202414941</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00748</t>
+  </si>
+  <si>
+    <t>Sarocladium oryzae MST-FP2085</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00749</t>
+  </si>
+  <si>
+    <t>terramides</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1038/s42004-024-01311-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00750</t>
+  </si>
+  <si>
+    <t>proliferic acid A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fusarium proliferatum CGMCC 3.4710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1039/d4sc05256k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00751</t>
+  </si>
+  <si>
+    <t>sporulositol A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Viridothelium virens</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c03154</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00752</t>
+  </si>
+  <si>
+    <t>exophillic acid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exophiala xenobiotica SDU 039</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c03024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00753</t>
+  </si>
+  <si>
+    <t>spiromastixone L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00754</t>
+  </si>
+  <si>
+    <t>FBGC00755</t>
+  </si>
+  <si>
+    <t>FBGC00756</t>
+  </si>
+  <si>
+    <t>malfilanol D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c02351</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00757</t>
+  </si>
+  <si>
+    <t>talaromyolide E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Talaromyces purpureogenus CX11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/jacs.1c11548</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00758</t>
+  </si>
+  <si>
+    <t>fungerin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/jacs.4c08388</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00759</t>
+  </si>
+  <si>
+    <t>octacyclin A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aspergillus parvulus CBS 136.61</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1021/jacs.4c06734</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00760</t>
+  </si>
+  <si>
+    <t>myrothec-15(17)-en-7,19-diol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Myrothecium gramineum ZLW0801-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1016/j.bioorg.2024.107726</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00761</t>
+  </si>
+  <si>
+    <t>myrothec-15(17)-en-7-ol-5-one</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Biscogniauxia sp. No. 71-10-1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00762</t>
+  </si>
+  <si>
+    <t>Nodulisporium sp. No. 65-12-7-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00763</t>
+  </si>
+  <si>
+    <t>Phaeosphaeria sp. HX1035</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8222,7 +9485,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8254,6 +9517,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -8327,7 +9596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8355,6 +9624,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8373,9 +9648,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8413,7 +9688,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8519,7 +9794,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8661,7 +9936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8669,10 +9944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE711D-66D2-B242-9BC0-F7F6F031DFD4}">
-  <dimension ref="A1:E779"/>
+  <dimension ref="A1:E882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E689"/>
+    <sheetView tabSelected="1" topLeftCell="A747" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A766" sqref="A766:XFD783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19933,1092 +21208,2923 @@
     </row>
     <row r="663" spans="1:5">
       <c r="A663" s="3" t="s">
-        <v>2124</v>
+        <v>2257</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>2125</v>
+        <v>2258</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D663" s="4">
-        <v>36524608</v>
+        <v>2259</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E663" s="3" t="s">
-        <v>2200</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="664" spans="1:5">
       <c r="A664" s="3" t="s">
-        <v>2127</v>
+        <v>2261</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>2128</v>
+        <v>2262</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D664" s="4">
-        <v>28371074</v>
+        <v>1686</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E664" s="3" t="s">
-        <v>2201</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="665" spans="1:5">
       <c r="A665" s="3" t="s">
-        <v>2130</v>
+        <v>2263</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>2128</v>
+        <v>2264</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>2131</v>
-      </c>
-      <c r="D665" s="3">
-        <v>31535864</v>
+        <v>2265</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E665" s="3" t="s">
-        <v>2202</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="666" spans="1:5">
       <c r="A666" s="3" t="s">
-        <v>2132</v>
+        <v>2266</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>2133</v>
+        <v>2267</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D666" s="4">
-        <v>30051576</v>
-      </c>
-      <c r="E666" s="4" t="s">
-        <v>2203</v>
+        <v>1467</v>
+      </c>
+      <c r="D666" s="3">
+        <v>37382166</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>2268</v>
       </c>
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="3" t="s">
-        <v>2135</v>
+        <v>2269</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>2136</v>
+        <v>2270</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>2050</v>
+        <v>2271</v>
       </c>
       <c r="D667" s="3">
-        <v>26340065</v>
+        <v>37310230</v>
       </c>
       <c r="E667" s="3" t="s">
-        <v>1794</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="668" spans="1:5">
       <c r="A668" s="3" t="s">
-        <v>2137</v>
+        <v>2273</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>2138</v>
+        <v>2274</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D668" s="3">
-        <v>26783060</v>
+        <v>2275</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E668" s="3" t="s">
-        <v>2204</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="669" spans="1:5">
       <c r="A669" s="3" t="s">
-        <v>2140</v>
+        <v>2277</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>2141</v>
+        <v>2278</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D669" s="4">
-        <v>26978228</v>
+        <v>2279</v>
+      </c>
+      <c r="D669" s="3">
+        <v>37310400</v>
       </c>
       <c r="E669" s="3" t="s">
-        <v>2205</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="670" spans="1:5">
       <c r="A670" s="3" t="s">
-        <v>2143</v>
+        <v>2281</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>2144</v>
+        <v>2282</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>2145</v>
+        <v>2279</v>
       </c>
       <c r="D670" s="3">
-        <v>36484777</v>
+        <v>37543015</v>
       </c>
       <c r="E670" s="3" t="s">
-        <v>2206</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="671" spans="1:5">
       <c r="A671" s="3" t="s">
-        <v>2146</v>
+        <v>2284</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>2147</v>
+        <v>2285</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>2145</v>
-      </c>
-      <c r="D671" s="3">
-        <v>36484777</v>
+        <v>1060</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E671" s="3" t="s">
-        <v>2206</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="672" spans="1:5">
       <c r="A672" s="3" t="s">
-        <v>2148</v>
+        <v>2287</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>2149</v>
+        <v>2288</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D672" s="3" t="s">
-        <v>357</v>
+        <v>2289</v>
+      </c>
+      <c r="D672" s="3">
+        <v>37566707</v>
       </c>
       <c r="E672" s="3" t="s">
-        <v>2207</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="673" spans="1:5">
       <c r="A673" s="3" t="s">
-        <v>2151</v>
+        <v>2291</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>2152</v>
+        <v>2292</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D673" s="3" t="s">
-        <v>357</v>
+        <v>2293</v>
+      </c>
+      <c r="D673" s="3">
+        <v>37589717</v>
       </c>
       <c r="E673" s="3" t="s">
-        <v>2208</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="674" spans="1:5">
       <c r="A674" s="3" t="s">
-        <v>2154</v>
+        <v>2295</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>2155</v>
+        <v>2296</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>2156</v>
+        <v>1467</v>
       </c>
       <c r="D674" s="3">
-        <v>35017571</v>
+        <v>37607357</v>
       </c>
       <c r="E674" s="3" t="s">
-        <v>2209</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="675" spans="1:5">
       <c r="A675" s="3" t="s">
-        <v>2157</v>
+        <v>2298</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>2158</v>
+        <v>2299</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>2159</v>
-      </c>
-      <c r="D675" s="3">
-        <v>34432466</v>
+        <v>2300</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E675" s="3" t="s">
-        <v>2210</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="676" spans="1:5">
       <c r="A676" s="3" t="s">
-        <v>2160</v>
+        <v>2302</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>2161</v>
+        <v>2303</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>2162</v>
+        <v>2304</v>
       </c>
       <c r="D676" s="3">
-        <v>33688736</v>
+        <v>37647109</v>
       </c>
       <c r="E676" s="3" t="s">
-        <v>2211</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="677" spans="1:5">
       <c r="A677" s="3" t="s">
-        <v>2163</v>
+        <v>2306</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>2164</v>
+        <v>2307</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>2165</v>
+        <v>2308</v>
       </c>
       <c r="D677" s="3">
-        <v>33480256</v>
+        <v>37755103</v>
       </c>
       <c r="E677" s="3" t="s">
-        <v>2212</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="678" spans="1:5">
       <c r="A678" s="3" t="s">
-        <v>2166</v>
+        <v>2310</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>2167</v>
+        <v>2311</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>2168</v>
+        <v>2312</v>
       </c>
       <c r="D678" s="3">
-        <v>32286350</v>
+        <v>37804495</v>
       </c>
       <c r="E678" s="3" t="s">
-        <v>862</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="679" spans="1:5">
       <c r="A679" s="3" t="s">
-        <v>2169</v>
+        <v>2314</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>2147</v>
+        <v>2315</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>2170</v>
+        <v>868</v>
       </c>
       <c r="D679" s="3">
-        <v>34430202</v>
+        <v>36452919</v>
       </c>
       <c r="E679" s="3" t="s">
-        <v>2213</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="680" spans="1:5">
       <c r="A680" s="3" t="s">
-        <v>2171</v>
+        <v>2317</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>2172</v>
+        <v>2318</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>2173</v>
+        <v>2319</v>
       </c>
       <c r="D680" s="3">
-        <v>18957608</v>
+        <v>37886844</v>
       </c>
       <c r="E680" s="3" t="s">
-        <v>2214</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="3" t="s">
-        <v>2174</v>
+        <v>2321</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>2175</v>
+        <v>2322</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>2176</v>
+        <v>1521</v>
       </c>
       <c r="D681" s="3">
-        <v>29797385</v>
+        <v>37886844</v>
       </c>
       <c r="E681" s="3" t="s">
-        <v>2215</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="682" spans="1:5">
       <c r="A682" s="3" t="s">
-        <v>2177</v>
+        <v>2323</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>2175</v>
+        <v>2324</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>2178</v>
+        <v>2050</v>
       </c>
       <c r="D682" s="3">
-        <v>29797385</v>
+        <v>37924510</v>
       </c>
       <c r="E682" s="3" t="s">
-        <v>2215</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="3" t="s">
-        <v>2179</v>
+        <v>2326</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>2180</v>
+        <v>2327</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D683" s="3">
-        <v>30556556</v>
+        <v>505</v>
+      </c>
+      <c r="D683" s="4">
+        <v>37860661</v>
       </c>
       <c r="E683" s="3" t="s">
-        <v>2216</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="684" spans="1:5">
       <c r="A684" s="3" t="s">
-        <v>2182</v>
+        <v>2329</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>2183</v>
+        <v>2330</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>2184</v>
+        <v>2331</v>
       </c>
       <c r="D684" s="3">
-        <v>31180682</v>
+        <v>37948671</v>
       </c>
       <c r="E684" s="3" t="s">
-        <v>2217</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="685" spans="1:5">
       <c r="A685" s="3" t="s">
-        <v>2185</v>
+        <v>2333</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>2186</v>
+        <v>2334</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>2187</v>
+        <v>2335</v>
       </c>
       <c r="D685" s="3">
-        <v>31086874</v>
+        <v>37983497</v>
       </c>
       <c r="E685" s="3" t="s">
-        <v>2218</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="686" spans="1:5">
       <c r="A686" s="3" t="s">
-        <v>2188</v>
+        <v>2337</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1973</v>
+        <v>2338</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>2189</v>
+        <v>469</v>
       </c>
       <c r="D686" s="3">
-        <v>29373009</v>
+        <v>38033887</v>
       </c>
       <c r="E686" s="3" t="s">
-        <v>1975</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="3" t="s">
-        <v>2190</v>
+        <v>2340</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>2191</v>
+        <v>2341</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>2192</v>
+        <v>2342</v>
       </c>
       <c r="D687" s="3">
-        <v>24848421</v>
+        <v>38033887</v>
       </c>
       <c r="E687" s="3" t="s">
-        <v>2219</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="688" spans="1:5">
       <c r="A688" s="3" t="s">
-        <v>2193</v>
+        <v>2343</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>2194</v>
+        <v>2344</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>2195</v>
+        <v>2345</v>
       </c>
       <c r="D688" s="3">
-        <v>16839576</v>
+        <v>38033887</v>
       </c>
       <c r="E688" s="3" t="s">
-        <v>2220</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="689" spans="1:5">
       <c r="A689" s="3" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D689" s="3">
+        <v>38404388</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" s="3" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D690" s="3">
+        <v>38404388</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="3" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D691" s="3">
+        <v>38404388</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" s="3" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="3" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="D693" s="3">
+        <v>23368695</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D694" s="3">
+        <v>35628785</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D695" s="3">
+        <v>38174895</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" s="3" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D696" s="3">
+        <v>38174895</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D697" s="3">
+        <v>38174895</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5">
+      <c r="A698" s="3" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" s="3" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D699" s="3">
+        <v>38743881</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" s="3" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="3" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D702" s="3">
+        <v>38377309</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" s="3" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D703" s="3">
+        <v>38467568</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" s="3" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D704" s="3">
+        <v>38467568</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" s="3" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D705" s="3">
+        <v>38417166</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" s="3" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D706" s="3">
+        <v>32286350</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D707" s="3">
+        <v>38499463</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" s="3" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D708" s="3">
+        <v>38527935</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" s="3" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D709" s="3">
+        <v>38545685</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" s="3" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D710" s="3">
+        <v>38545685</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D711" s="3">
+        <v>38545685</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" s="3" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D712" s="3">
+        <v>38545685</v>
+      </c>
+      <c r="E712" s="3" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" s="3" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D713" s="3">
+        <v>38644685</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" s="3" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D714" s="3">
+        <v>38607994</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" s="3" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D715" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" s="3" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D716" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D717" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="3" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D718" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" s="3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D719" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="3" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D720" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="3" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D721" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" s="3" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D722" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" s="3" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D723" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="3" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D724" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="3" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D725" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" s="3" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D726" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" s="3" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D727" s="3">
+        <v>38606577</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" s="3" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D728" s="3">
+        <v>38773118</v>
+      </c>
+      <c r="E728" s="3" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" s="3" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D729" s="3">
+        <v>38654452</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" s="3" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D730" s="3">
+        <v>38581278</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" s="3" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D731" s="3">
+        <v>38581278</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" s="3" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D732" s="3">
+        <v>38581278</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" s="3" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D733" s="3">
+        <v>38767291</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" s="3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D734" s="3">
+        <v>38687842</v>
+      </c>
+      <c r="E734" s="4" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" s="3" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D735" s="3">
+        <v>38687842</v>
+      </c>
+      <c r="E735" s="4" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" s="3" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D736" s="3">
+        <v>38687842</v>
+      </c>
+      <c r="E736" s="4" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5">
+      <c r="A737" s="3" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D737" s="3">
+        <v>38687842</v>
+      </c>
+      <c r="E737" s="4" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" s="3" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D738" s="3">
+        <v>38687842</v>
+      </c>
+      <c r="E738" s="4" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5">
+      <c r="A739" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D739" s="3">
+        <v>38635317</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" s="3" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D740" s="3">
+        <v>38990199</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" s="3" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D741" s="3">
+        <v>38873062</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" s="3" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D742" s="3">
+        <v>38386630</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5">
+      <c r="A743" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D743" s="3">
+        <v>38386630</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" s="3" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D744" s="3">
+        <v>36710518</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5">
+      <c r="A745" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D745" s="3">
+        <v>38581278</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D746" s="3">
+        <v>38687877</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5">
+      <c r="A747" s="3" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D747" s="3">
+        <v>39150723</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5">
+      <c r="A748" s="3" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D748" s="3">
+        <v>39247891</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5">
+      <c r="A749" s="3" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D749" s="3">
+        <v>39363718</v>
+      </c>
+      <c r="E749" s="4" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5">
+      <c r="A750" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D750" s="3">
+        <v>39363718</v>
+      </c>
+      <c r="E750" s="4" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" s="3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D751" s="3">
+        <v>39349940</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="A752" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D752" s="4">
+        <v>39360009</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D753" s="3">
+        <v>39310987</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D754" s="3">
+        <v>39303077</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D755" s="3">
+        <v>39303077</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D756" s="3">
+        <v>39303077</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D757" s="3">
+        <v>39303077</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D758" s="3">
+        <v>39073982</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D759" s="3">
+        <v>34881885</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D760" s="3">
+        <v>39140691</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D761" s="3">
+        <v>39140852</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" s="3" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D762" s="3">
+        <v>39182256</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="3" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D763" s="3">
+        <v>39182256</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="3" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D764" s="3">
+        <v>39182256</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" s="3" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D765" s="3">
+        <v>37983497</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D766" s="4">
+        <v>36524608</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D767" s="4">
+        <v>28371074</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D768" s="3">
+        <v>31535864</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D769" s="4">
+        <v>30051576</v>
+      </c>
+      <c r="E769" s="4" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D770" s="3">
+        <v>26340065</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D771" s="3">
+        <v>26783060</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D772" s="4">
+        <v>26978228</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D773" s="3">
+        <v>36484777</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D774" s="3">
+        <v>36484777</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D776" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D777" s="3">
+        <v>35017571</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D778" s="3">
+        <v>34432466</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D779" s="3">
+        <v>33688736</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D780" s="3">
+        <v>33480256</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D781" s="3">
+        <v>32286350</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D782" s="3">
+        <v>34430202</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D783" s="3">
+        <v>18957608</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D784" s="3">
+        <v>29797385</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D785" s="3">
+        <v>29797385</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D786" s="3">
+        <v>30556556</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D787" s="3">
+        <v>31180682</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5">
+      <c r="A788" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D788" s="3">
+        <v>31086874</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5">
+      <c r="A789" s="3" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D789" s="3">
+        <v>29373009</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5">
+      <c r="A790" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D790" s="3">
+        <v>24848421</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5">
+      <c r="A791" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D791" s="3">
+        <v>16839576</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5">
+      <c r="A792" s="3" t="s">
         <v>2196</v>
       </c>
-      <c r="B689" s="3" t="s">
+      <c r="B792" s="3" t="s">
         <v>2197</v>
       </c>
-      <c r="C689" s="3" t="s">
+      <c r="C792" s="3" t="s">
         <v>2198</v>
       </c>
-      <c r="D689" s="3">
+      <c r="D792" s="3">
         <v>19097780</v>
       </c>
-      <c r="E689" s="3" t="s">
+      <c r="E792" s="3" t="s">
         <v>2221</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
-      <c r="A690" s="5"/>
-      <c r="B690" s="5"/>
-      <c r="C690" s="5"/>
-      <c r="D690" s="5"/>
-      <c r="E690" s="5"/>
-    </row>
-    <row r="691" spans="1:5">
-      <c r="A691" s="5"/>
-      <c r="B691" s="5"/>
-      <c r="C691" s="5"/>
-      <c r="D691" s="5"/>
-      <c r="E691" s="5"/>
-    </row>
-    <row r="692" spans="1:5">
-      <c r="A692" s="5"/>
-      <c r="B692" s="5"/>
-      <c r="C692" s="5"/>
-      <c r="D692" s="5"/>
-      <c r="E692" s="5"/>
-    </row>
-    <row r="693" spans="1:5">
-      <c r="A693" s="5"/>
-      <c r="B693" s="5"/>
-      <c r="C693" s="5"/>
-      <c r="D693" s="5"/>
-      <c r="E693" s="5"/>
-    </row>
-    <row r="694" spans="1:5">
-      <c r="A694" s="5"/>
-      <c r="B694" s="5"/>
-      <c r="C694" s="5"/>
-      <c r="D694" s="5"/>
-      <c r="E694" s="5"/>
-    </row>
-    <row r="695" spans="1:5">
-      <c r="A695" s="5"/>
-      <c r="B695" s="5"/>
-      <c r="C695" s="5"/>
-      <c r="D695" s="5"/>
-      <c r="E695" s="5"/>
-    </row>
-    <row r="696" spans="1:5">
-      <c r="A696" s="5"/>
-      <c r="B696" s="5"/>
-      <c r="C696" s="5"/>
-      <c r="D696" s="5"/>
-      <c r="E696" s="5"/>
-    </row>
-    <row r="697" spans="1:5">
-      <c r="A697" s="5"/>
-      <c r="B697" s="5"/>
-      <c r="C697" s="5"/>
-      <c r="D697" s="5"/>
-      <c r="E697" s="5"/>
-    </row>
-    <row r="698" spans="1:5">
-      <c r="A698" s="5"/>
-      <c r="B698" s="5"/>
-      <c r="C698" s="5"/>
-      <c r="D698" s="5"/>
-      <c r="E698" s="5"/>
-    </row>
-    <row r="699" spans="1:5">
-      <c r="A699" s="5"/>
-      <c r="B699" s="5"/>
-      <c r="C699" s="5"/>
-      <c r="D699" s="5"/>
-      <c r="E699" s="5"/>
-    </row>
-    <row r="700" spans="1:5">
-      <c r="A700" s="5"/>
-      <c r="B700" s="5"/>
-      <c r="C700" s="5"/>
-      <c r="D700" s="5"/>
-      <c r="E700" s="5"/>
-    </row>
-    <row r="701" spans="1:5">
-      <c r="A701" s="5"/>
-      <c r="B701" s="5"/>
-      <c r="C701" s="5"/>
-      <c r="D701" s="5"/>
-      <c r="E701" s="5"/>
-    </row>
-    <row r="702" spans="1:5">
-      <c r="A702" s="5"/>
-      <c r="B702" s="5"/>
-      <c r="C702" s="5"/>
-      <c r="D702" s="5"/>
-      <c r="E702" s="5"/>
-    </row>
-    <row r="703" spans="1:5">
-      <c r="A703" s="5"/>
-      <c r="B703" s="5"/>
-      <c r="C703" s="5"/>
-      <c r="D703" s="5"/>
-      <c r="E703" s="5"/>
-    </row>
-    <row r="704" spans="1:5">
-      <c r="A704" s="5"/>
-      <c r="B704" s="5"/>
-      <c r="C704" s="5"/>
-      <c r="D704" s="5"/>
-      <c r="E704" s="5"/>
-    </row>
-    <row r="705" spans="1:5">
-      <c r="A705" s="5"/>
-      <c r="B705" s="5"/>
-      <c r="C705" s="5"/>
-      <c r="D705" s="5"/>
-      <c r="E705" s="5"/>
-    </row>
-    <row r="706" spans="1:5">
-      <c r="A706" s="5"/>
-      <c r="B706" s="5"/>
-      <c r="C706" s="5"/>
-      <c r="D706" s="5"/>
-      <c r="E706" s="5"/>
-    </row>
-    <row r="707" spans="1:5">
-      <c r="A707" s="5"/>
-      <c r="B707" s="5"/>
-      <c r="C707" s="5"/>
-      <c r="D707" s="5"/>
-      <c r="E707" s="5"/>
-    </row>
-    <row r="708" spans="1:5">
-      <c r="A708" s="5"/>
-      <c r="B708" s="5"/>
-      <c r="C708" s="5"/>
-      <c r="D708" s="5"/>
-      <c r="E708" s="5"/>
-    </row>
-    <row r="709" spans="1:5">
-      <c r="A709" s="5"/>
-      <c r="B709" s="5"/>
-      <c r="C709" s="5"/>
-      <c r="D709" s="5"/>
-      <c r="E709" s="5"/>
-    </row>
-    <row r="710" spans="1:5">
-      <c r="A710" s="5"/>
-      <c r="B710" s="5"/>
-      <c r="C710" s="5"/>
-      <c r="D710" s="5"/>
-      <c r="E710" s="5"/>
-    </row>
-    <row r="711" spans="1:5">
-      <c r="A711" s="5"/>
-      <c r="B711" s="5"/>
-      <c r="C711" s="5"/>
-      <c r="D711" s="5"/>
-      <c r="E711" s="5"/>
-    </row>
-    <row r="712" spans="1:5">
-      <c r="A712" s="5"/>
-      <c r="B712" s="5"/>
-      <c r="C712" s="5"/>
-      <c r="D712" s="5"/>
-      <c r="E712" s="5"/>
-    </row>
-    <row r="713" spans="1:5">
-      <c r="A713" s="5"/>
-      <c r="B713" s="5"/>
-      <c r="C713" s="5"/>
-      <c r="D713" s="5"/>
-      <c r="E713" s="5"/>
-    </row>
-    <row r="714" spans="1:5">
-      <c r="A714" s="5"/>
-      <c r="B714" s="5"/>
-      <c r="C714" s="5"/>
-      <c r="D714" s="5"/>
-      <c r="E714" s="5"/>
-    </row>
-    <row r="715" spans="1:5">
-      <c r="A715" s="5"/>
-      <c r="B715" s="5"/>
-      <c r="C715" s="5"/>
-      <c r="D715" s="5"/>
-      <c r="E715" s="5"/>
-    </row>
-    <row r="716" spans="1:5">
-      <c r="A716" s="5"/>
-      <c r="B716" s="5"/>
-      <c r="C716" s="5"/>
-      <c r="D716" s="5"/>
-      <c r="E716" s="5"/>
-    </row>
-    <row r="717" spans="1:5">
-      <c r="A717" s="5"/>
-      <c r="B717" s="5"/>
-      <c r="C717" s="5"/>
-      <c r="D717" s="5"/>
-      <c r="E717" s="5"/>
-    </row>
-    <row r="718" spans="1:5">
-      <c r="A718" s="5"/>
-      <c r="B718" s="5"/>
-      <c r="C718" s="5"/>
-      <c r="D718" s="5"/>
-      <c r="E718" s="5"/>
-    </row>
-    <row r="719" spans="1:5">
-      <c r="A719" s="5"/>
-      <c r="B719" s="5"/>
-      <c r="C719" s="5"/>
-      <c r="D719" s="5"/>
-      <c r="E719" s="5"/>
-    </row>
-    <row r="720" spans="1:5">
-      <c r="A720" s="5"/>
-      <c r="B720" s="5"/>
-      <c r="C720" s="5"/>
-      <c r="D720" s="5"/>
-      <c r="E720" s="5"/>
-    </row>
-    <row r="721" spans="1:5">
-      <c r="A721" s="5"/>
-      <c r="B721" s="5"/>
-      <c r="C721" s="5"/>
-      <c r="D721" s="5"/>
-      <c r="E721" s="5"/>
-    </row>
-    <row r="722" spans="1:5">
-      <c r="A722" s="5"/>
-      <c r="B722" s="5"/>
-      <c r="C722" s="5"/>
-      <c r="D722" s="5"/>
-      <c r="E722" s="5"/>
-    </row>
-    <row r="723" spans="1:5">
-      <c r="A723" s="5"/>
-      <c r="B723" s="5"/>
-      <c r="C723" s="5"/>
-      <c r="D723" s="5"/>
-      <c r="E723" s="5"/>
-    </row>
-    <row r="724" spans="1:5">
-      <c r="A724" s="5"/>
-      <c r="B724" s="5"/>
-      <c r="C724" s="5"/>
-      <c r="D724" s="5"/>
-      <c r="E724" s="5"/>
-    </row>
-    <row r="725" spans="1:5">
-      <c r="A725" s="5"/>
-      <c r="B725" s="5"/>
-      <c r="C725" s="5"/>
-      <c r="D725" s="5"/>
-      <c r="E725" s="5"/>
-    </row>
-    <row r="726" spans="1:5">
-      <c r="A726" s="5"/>
-      <c r="B726" s="5"/>
-      <c r="C726" s="5"/>
-      <c r="D726" s="5"/>
-      <c r="E726" s="5"/>
-    </row>
-    <row r="727" spans="1:5">
-      <c r="A727" s="5"/>
-      <c r="B727" s="5"/>
-      <c r="C727" s="5"/>
-      <c r="D727" s="5"/>
-      <c r="E727" s="5"/>
-    </row>
-    <row r="728" spans="1:5">
-      <c r="A728" s="5"/>
-      <c r="B728" s="5"/>
-      <c r="C728" s="5"/>
-      <c r="D728" s="5"/>
-      <c r="E728" s="5"/>
-    </row>
-    <row r="729" spans="1:5">
-      <c r="A729" s="5"/>
-      <c r="B729" s="5"/>
-      <c r="C729" s="5"/>
-      <c r="D729" s="5"/>
-      <c r="E729" s="5"/>
-    </row>
-    <row r="730" spans="1:5">
-      <c r="A730" s="5"/>
-      <c r="B730" s="5"/>
-      <c r="C730" s="5"/>
-      <c r="D730" s="5"/>
-      <c r="E730" s="5"/>
-    </row>
-    <row r="731" spans="1:5">
-      <c r="A731" s="5"/>
-      <c r="B731" s="5"/>
-      <c r="C731" s="5"/>
-      <c r="D731" s="5"/>
-      <c r="E731" s="5"/>
-    </row>
-    <row r="732" spans="1:5">
-      <c r="A732" s="5"/>
-      <c r="B732" s="5"/>
-      <c r="C732" s="5"/>
-      <c r="D732" s="5"/>
-      <c r="E732" s="5"/>
-    </row>
-    <row r="733" spans="1:5">
-      <c r="A733" s="5"/>
-      <c r="B733" s="5"/>
-      <c r="C733" s="5"/>
-      <c r="D733" s="5"/>
-      <c r="E733" s="5"/>
-    </row>
-    <row r="734" spans="1:5">
-      <c r="A734" s="5"/>
-      <c r="B734" s="5"/>
-      <c r="C734" s="5"/>
-      <c r="D734" s="5"/>
-      <c r="E734" s="5"/>
-    </row>
-    <row r="735" spans="1:5">
-      <c r="A735" s="5"/>
-      <c r="B735" s="5"/>
-      <c r="C735" s="5"/>
-      <c r="D735" s="5"/>
-      <c r="E735" s="5"/>
-    </row>
-    <row r="736" spans="1:5">
-      <c r="A736" s="5"/>
-      <c r="B736" s="5"/>
-      <c r="C736" s="5"/>
-      <c r="D736" s="5"/>
-      <c r="E736" s="5"/>
-    </row>
-    <row r="737" spans="1:5">
-      <c r="A737" s="5"/>
-      <c r="B737" s="5"/>
-      <c r="C737" s="5"/>
-      <c r="D737" s="5"/>
-      <c r="E737" s="5"/>
-    </row>
-    <row r="738" spans="1:5">
-      <c r="A738" s="5"/>
-      <c r="B738" s="5"/>
-      <c r="C738" s="5"/>
-      <c r="D738" s="5"/>
-      <c r="E738" s="5"/>
-    </row>
-    <row r="739" spans="1:5">
-      <c r="A739" s="5"/>
-      <c r="B739" s="5"/>
-      <c r="C739" s="5"/>
-      <c r="D739" s="5"/>
-      <c r="E739" s="5"/>
-    </row>
-    <row r="740" spans="1:5">
-      <c r="A740" s="5"/>
-      <c r="B740" s="5"/>
-      <c r="C740" s="5"/>
-      <c r="D740" s="5"/>
-      <c r="E740" s="5"/>
-    </row>
-    <row r="741" spans="1:5">
-      <c r="A741" s="5"/>
-      <c r="B741" s="5"/>
-      <c r="C741" s="5"/>
-      <c r="D741" s="5"/>
-      <c r="E741" s="5"/>
-    </row>
-    <row r="742" spans="1:5">
-      <c r="A742" s="5"/>
-      <c r="B742" s="5"/>
-      <c r="C742" s="5"/>
-      <c r="D742" s="5"/>
-      <c r="E742" s="5"/>
-    </row>
-    <row r="743" spans="1:5">
-      <c r="A743" s="5"/>
-      <c r="B743" s="5"/>
-      <c r="C743" s="5"/>
-      <c r="D743" s="5"/>
-      <c r="E743" s="5"/>
-    </row>
-    <row r="744" spans="1:5">
-      <c r="A744" s="5"/>
-      <c r="B744" s="5"/>
-      <c r="C744" s="5"/>
-      <c r="D744" s="5"/>
-      <c r="E744" s="5"/>
-    </row>
-    <row r="745" spans="1:5">
-      <c r="A745" s="5"/>
-      <c r="B745" s="5"/>
-      <c r="C745" s="5"/>
-      <c r="D745" s="5"/>
-      <c r="E745" s="5"/>
-    </row>
-    <row r="746" spans="1:5">
-      <c r="A746" s="5"/>
-      <c r="B746" s="5"/>
-      <c r="C746" s="5"/>
-      <c r="D746" s="5"/>
-      <c r="E746" s="5"/>
-    </row>
-    <row r="747" spans="1:5">
-      <c r="A747" s="5"/>
-      <c r="B747" s="5"/>
-      <c r="C747" s="5"/>
-      <c r="D747" s="5"/>
-      <c r="E747" s="5"/>
-    </row>
-    <row r="748" spans="1:5">
-      <c r="A748" s="5"/>
-      <c r="B748" s="5"/>
-      <c r="C748" s="5"/>
-      <c r="D748" s="5"/>
-      <c r="E748" s="5"/>
-    </row>
-    <row r="749" spans="1:5">
-      <c r="A749" s="5"/>
-      <c r="B749" s="5"/>
-      <c r="C749" s="5"/>
-      <c r="D749" s="5"/>
-      <c r="E749" s="5"/>
-    </row>
-    <row r="750" spans="1:5">
-      <c r="A750" s="5"/>
-      <c r="B750" s="5"/>
-      <c r="C750" s="5"/>
-      <c r="D750" s="5"/>
-      <c r="E750" s="5"/>
-    </row>
-    <row r="751" spans="1:5">
-      <c r="A751" s="5"/>
-      <c r="B751" s="5"/>
-      <c r="C751" s="5"/>
-      <c r="D751" s="5"/>
-      <c r="E751" s="5"/>
-    </row>
-    <row r="752" spans="1:5">
-      <c r="A752" s="5"/>
-      <c r="B752" s="5"/>
-      <c r="C752" s="5"/>
-      <c r="D752" s="5"/>
-      <c r="E752" s="5"/>
-    </row>
-    <row r="753" spans="1:5">
-      <c r="A753" s="5"/>
-      <c r="B753" s="5"/>
-      <c r="C753" s="5"/>
-      <c r="D753" s="5"/>
-      <c r="E753" s="5"/>
-    </row>
-    <row r="754" spans="1:5">
-      <c r="A754" s="5"/>
-      <c r="B754" s="5"/>
-      <c r="C754" s="5"/>
-      <c r="D754" s="5"/>
-      <c r="E754" s="5"/>
-    </row>
-    <row r="755" spans="1:5">
-      <c r="A755" s="5"/>
-      <c r="B755" s="5"/>
-      <c r="C755" s="5"/>
-      <c r="D755" s="5"/>
-      <c r="E755" s="5"/>
-    </row>
-    <row r="756" spans="1:5">
-      <c r="A756" s="5"/>
-      <c r="B756" s="5"/>
-      <c r="C756" s="5"/>
-      <c r="D756" s="5"/>
-      <c r="E756" s="5"/>
-    </row>
-    <row r="757" spans="1:5">
-      <c r="A757" s="5"/>
-      <c r="B757" s="5"/>
-      <c r="C757" s="5"/>
-      <c r="D757" s="5"/>
-      <c r="E757" s="5"/>
-    </row>
-    <row r="758" spans="1:5">
-      <c r="A758" s="5"/>
-      <c r="B758" s="5"/>
-      <c r="C758" s="5"/>
-      <c r="D758" s="5"/>
-      <c r="E758" s="5"/>
-    </row>
-    <row r="759" spans="1:5">
-      <c r="A759" s="5"/>
-      <c r="B759" s="5"/>
-      <c r="C759" s="5"/>
-      <c r="D759" s="5"/>
-      <c r="E759" s="5"/>
-    </row>
-    <row r="760" spans="1:5">
-      <c r="A760" s="5"/>
-      <c r="B760" s="5"/>
-      <c r="C760" s="5"/>
-      <c r="D760" s="5"/>
-      <c r="E760" s="5"/>
-    </row>
-    <row r="761" spans="1:5">
-      <c r="A761" s="5"/>
-      <c r="B761" s="5"/>
-      <c r="C761" s="5"/>
-      <c r="D761" s="5"/>
-      <c r="E761" s="5"/>
-    </row>
-    <row r="762" spans="1:5">
-      <c r="A762" s="5"/>
-      <c r="B762" s="5"/>
-      <c r="C762" s="5"/>
-      <c r="D762" s="5"/>
-      <c r="E762" s="5"/>
-    </row>
-    <row r="763" spans="1:5">
-      <c r="A763" s="5"/>
-      <c r="B763" s="5"/>
-      <c r="C763" s="5"/>
-      <c r="D763" s="5"/>
-      <c r="E763" s="5"/>
-    </row>
-    <row r="764" spans="1:5">
-      <c r="A764" s="5"/>
-      <c r="B764" s="5"/>
-      <c r="C764" s="5"/>
-      <c r="D764" s="5"/>
-      <c r="E764" s="5"/>
-    </row>
-    <row r="765" spans="1:5">
-      <c r="A765" s="5"/>
-      <c r="B765" s="5"/>
-      <c r="C765" s="5"/>
-      <c r="D765" s="5"/>
-      <c r="E765" s="5"/>
-    </row>
-    <row r="766" spans="1:5">
-      <c r="A766" s="5"/>
-      <c r="B766" s="5"/>
-      <c r="C766" s="5"/>
-      <c r="D766" s="5"/>
-      <c r="E766" s="5"/>
-    </row>
-    <row r="767" spans="1:5">
-      <c r="A767" s="5"/>
-      <c r="B767" s="5"/>
-      <c r="C767" s="5"/>
-      <c r="D767" s="5"/>
-      <c r="E767" s="5"/>
-    </row>
-    <row r="768" spans="1:5">
-      <c r="A768" s="5"/>
-      <c r="B768" s="5"/>
-      <c r="C768" s="5"/>
-      <c r="D768" s="5"/>
-      <c r="E768" s="5"/>
-    </row>
-    <row r="769" spans="1:5">
-      <c r="A769" s="5"/>
-      <c r="B769" s="5"/>
-      <c r="C769" s="5"/>
-      <c r="D769" s="5"/>
-      <c r="E769" s="5"/>
-    </row>
-    <row r="770" spans="1:5">
-      <c r="A770" s="5"/>
-      <c r="B770" s="5"/>
-      <c r="C770" s="5"/>
-      <c r="D770" s="5"/>
-      <c r="E770" s="5"/>
-    </row>
-    <row r="771" spans="1:5">
-      <c r="A771" s="5"/>
-      <c r="B771" s="5"/>
-      <c r="C771" s="5"/>
-      <c r="D771" s="5"/>
-      <c r="E771" s="5"/>
-    </row>
-    <row r="772" spans="1:5">
-      <c r="A772" s="5"/>
-      <c r="B772" s="5"/>
-      <c r="C772" s="5"/>
-      <c r="D772" s="5"/>
-      <c r="E772" s="5"/>
-    </row>
-    <row r="773" spans="1:5">
-      <c r="A773" s="5"/>
-      <c r="B773" s="5"/>
-      <c r="C773" s="5"/>
-      <c r="D773" s="5"/>
-      <c r="E773" s="5"/>
-    </row>
-    <row r="774" spans="1:5">
-      <c r="A774" s="5"/>
-      <c r="B774" s="5"/>
-      <c r="C774" s="5"/>
-      <c r="D774" s="5"/>
-      <c r="E774" s="5"/>
-    </row>
-    <row r="775" spans="1:5">
-      <c r="A775" s="5"/>
-      <c r="B775" s="5"/>
-      <c r="C775" s="5"/>
-      <c r="D775" s="5"/>
-      <c r="E775" s="5"/>
-    </row>
-    <row r="776" spans="1:5">
-      <c r="A776" s="5"/>
-      <c r="B776" s="5"/>
-      <c r="C776" s="5"/>
-      <c r="D776" s="5"/>
-      <c r="E776" s="5"/>
-    </row>
-    <row r="777" spans="1:5">
-      <c r="A777" s="5"/>
-      <c r="B777" s="5"/>
-      <c r="C777" s="5"/>
-      <c r="D777" s="5"/>
-      <c r="E777" s="5"/>
-    </row>
-    <row r="778" spans="1:5">
-      <c r="A778" s="5"/>
-      <c r="B778" s="5"/>
-      <c r="C778" s="5"/>
-      <c r="D778" s="5"/>
-      <c r="E778" s="5"/>
-    </row>
-    <row r="779" spans="1:5">
-      <c r="A779" s="5"/>
-      <c r="B779" s="5"/>
-      <c r="C779" s="5"/>
-      <c r="D779" s="5"/>
-      <c r="E779" s="5"/>
+    <row r="793" spans="1:5">
+      <c r="A793" s="9" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B793" s="9" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C793" s="9" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D793" s="3">
+        <v>32286350</v>
+      </c>
+      <c r="E793" s="10" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="A794" s="9" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B794" s="9" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C794" s="9" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D794" s="3">
+        <v>32286350</v>
+      </c>
+      <c r="E794" s="10" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" s="9" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B795" s="9" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C795" s="9" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D795" s="3">
+        <v>32286350</v>
+      </c>
+      <c r="E795" s="10" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5">
+      <c r="A796" s="9" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B796" s="9" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C796" s="9" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D796" s="3">
+        <v>32286350</v>
+      </c>
+      <c r="E796" s="10" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5">
+      <c r="A797" s="9" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B797" s="9" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C797" s="9" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D797" s="3">
+        <v>38904208</v>
+      </c>
+      <c r="E797" s="10" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" s="9" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B798" s="9" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C798" s="9" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D798" s="3">
+        <v>38904208</v>
+      </c>
+      <c r="E798" s="10" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5">
+      <c r="A799" s="9" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B799" s="9" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C799" s="9" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D799" s="3">
+        <v>38815056</v>
+      </c>
+      <c r="E799" s="10" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="A800" s="9" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B800" s="9" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C800" s="9" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D800" s="3">
+        <v>36879280</v>
+      </c>
+      <c r="E800" s="10" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="A801" s="5"/>
+      <c r="B801" s="5"/>
+      <c r="C801" s="5"/>
+      <c r="D801" s="5"/>
+      <c r="E801" s="5"/>
+    </row>
+    <row r="802" spans="1:5">
+      <c r="A802" s="5"/>
+      <c r="B802" s="5"/>
+      <c r="C802" s="5"/>
+      <c r="D802" s="5"/>
+      <c r="E802" s="5"/>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="A803" s="5"/>
+      <c r="B803" s="5"/>
+      <c r="C803" s="5"/>
+      <c r="D803" s="5"/>
+      <c r="E803" s="5"/>
+    </row>
+    <row r="804" spans="1:5">
+      <c r="A804" s="5"/>
+      <c r="B804" s="5"/>
+      <c r="C804" s="5"/>
+      <c r="D804" s="5"/>
+      <c r="E804" s="5"/>
+    </row>
+    <row r="805" spans="1:5">
+      <c r="A805" s="5"/>
+      <c r="B805" s="5"/>
+      <c r="C805" s="5"/>
+      <c r="D805" s="5"/>
+      <c r="E805" s="5"/>
+    </row>
+    <row r="806" spans="1:5">
+      <c r="A806" s="5"/>
+      <c r="B806" s="5"/>
+      <c r="C806" s="5"/>
+      <c r="D806" s="5"/>
+      <c r="E806" s="5"/>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" s="5"/>
+      <c r="B807" s="5"/>
+      <c r="C807" s="5"/>
+      <c r="D807" s="5"/>
+      <c r="E807" s="5"/>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" s="5"/>
+      <c r="B808" s="5"/>
+      <c r="C808" s="5"/>
+      <c r="D808" s="5"/>
+      <c r="E808" s="5"/>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="A809" s="5"/>
+      <c r="B809" s="5"/>
+      <c r="C809" s="5"/>
+      <c r="D809" s="5"/>
+      <c r="E809" s="5"/>
+    </row>
+    <row r="810" spans="1:5">
+      <c r="A810" s="5"/>
+      <c r="B810" s="5"/>
+      <c r="C810" s="5"/>
+      <c r="D810" s="5"/>
+      <c r="E810" s="5"/>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" s="5"/>
+      <c r="B811" s="5"/>
+      <c r="C811" s="5"/>
+      <c r="D811" s="5"/>
+      <c r="E811" s="5"/>
+    </row>
+    <row r="812" spans="1:5">
+      <c r="A812" s="5"/>
+      <c r="B812" s="5"/>
+      <c r="C812" s="5"/>
+      <c r="D812" s="5"/>
+      <c r="E812" s="5"/>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="5"/>
+      <c r="B813" s="5"/>
+      <c r="C813" s="5"/>
+      <c r="D813" s="5"/>
+      <c r="E813" s="5"/>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="A814" s="5"/>
+      <c r="B814" s="5"/>
+      <c r="C814" s="5"/>
+      <c r="D814" s="5"/>
+      <c r="E814" s="5"/>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="5"/>
+      <c r="B815" s="5"/>
+      <c r="C815" s="5"/>
+      <c r="D815" s="5"/>
+      <c r="E815" s="5"/>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="A816" s="5"/>
+      <c r="B816" s="5"/>
+      <c r="C816" s="5"/>
+      <c r="D816" s="5"/>
+      <c r="E816" s="5"/>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" s="5"/>
+      <c r="B817" s="5"/>
+      <c r="C817" s="5"/>
+      <c r="D817" s="5"/>
+      <c r="E817" s="5"/>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="5"/>
+      <c r="B818" s="5"/>
+      <c r="C818" s="5"/>
+      <c r="D818" s="5"/>
+      <c r="E818" s="5"/>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" s="5"/>
+      <c r="B819" s="5"/>
+      <c r="C819" s="5"/>
+      <c r="D819" s="5"/>
+      <c r="E819" s="5"/>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="5"/>
+      <c r="B820" s="5"/>
+      <c r="C820" s="5"/>
+      <c r="D820" s="5"/>
+      <c r="E820" s="5"/>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="A821" s="5"/>
+      <c r="B821" s="5"/>
+      <c r="C821" s="5"/>
+      <c r="D821" s="5"/>
+      <c r="E821" s="5"/>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="A822" s="5"/>
+      <c r="B822" s="5"/>
+      <c r="C822" s="5"/>
+      <c r="D822" s="5"/>
+      <c r="E822" s="5"/>
+    </row>
+    <row r="823" spans="1:5">
+      <c r="A823" s="5"/>
+      <c r="B823" s="5"/>
+      <c r="C823" s="5"/>
+      <c r="D823" s="5"/>
+      <c r="E823" s="5"/>
+    </row>
+    <row r="824" spans="1:5">
+      <c r="A824" s="5"/>
+      <c r="B824" s="5"/>
+      <c r="C824" s="5"/>
+      <c r="D824" s="5"/>
+      <c r="E824" s="5"/>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" s="5"/>
+      <c r="B825" s="5"/>
+      <c r="C825" s="5"/>
+      <c r="D825" s="5"/>
+      <c r="E825" s="5"/>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" s="5"/>
+      <c r="B826" s="5"/>
+      <c r="C826" s="5"/>
+      <c r="D826" s="5"/>
+      <c r="E826" s="5"/>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" s="5"/>
+      <c r="B827" s="5"/>
+      <c r="C827" s="5"/>
+      <c r="D827" s="5"/>
+      <c r="E827" s="5"/>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="A828" s="5"/>
+      <c r="B828" s="5"/>
+      <c r="C828" s="5"/>
+      <c r="D828" s="5"/>
+      <c r="E828" s="5"/>
+    </row>
+    <row r="829" spans="1:5">
+      <c r="A829" s="5"/>
+      <c r="B829" s="5"/>
+      <c r="C829" s="5"/>
+      <c r="D829" s="5"/>
+      <c r="E829" s="5"/>
+    </row>
+    <row r="830" spans="1:5">
+      <c r="A830" s="5"/>
+      <c r="B830" s="5"/>
+      <c r="C830" s="5"/>
+      <c r="D830" s="5"/>
+      <c r="E830" s="5"/>
+    </row>
+    <row r="831" spans="1:5">
+      <c r="A831" s="5"/>
+      <c r="B831" s="5"/>
+      <c r="C831" s="5"/>
+      <c r="D831" s="5"/>
+      <c r="E831" s="5"/>
+    </row>
+    <row r="832" spans="1:5">
+      <c r="A832" s="5"/>
+      <c r="B832" s="5"/>
+      <c r="C832" s="5"/>
+      <c r="D832" s="5"/>
+      <c r="E832" s="5"/>
+    </row>
+    <row r="833" spans="1:5">
+      <c r="A833" s="5"/>
+      <c r="B833" s="5"/>
+      <c r="C833" s="5"/>
+      <c r="D833" s="5"/>
+      <c r="E833" s="5"/>
+    </row>
+    <row r="834" spans="1:5">
+      <c r="A834" s="5"/>
+      <c r="B834" s="5"/>
+      <c r="C834" s="5"/>
+      <c r="D834" s="5"/>
+      <c r="E834" s="5"/>
+    </row>
+    <row r="835" spans="1:5">
+      <c r="A835" s="5"/>
+      <c r="B835" s="5"/>
+      <c r="C835" s="5"/>
+      <c r="D835" s="5"/>
+      <c r="E835" s="5"/>
+    </row>
+    <row r="836" spans="1:5">
+      <c r="A836" s="5"/>
+      <c r="B836" s="5"/>
+      <c r="C836" s="5"/>
+      <c r="D836" s="5"/>
+      <c r="E836" s="5"/>
+    </row>
+    <row r="837" spans="1:5">
+      <c r="A837" s="5"/>
+      <c r="B837" s="5"/>
+      <c r="C837" s="5"/>
+      <c r="D837" s="5"/>
+      <c r="E837" s="5"/>
+    </row>
+    <row r="838" spans="1:5">
+      <c r="A838" s="5"/>
+      <c r="B838" s="5"/>
+      <c r="C838" s="5"/>
+      <c r="D838" s="5"/>
+      <c r="E838" s="5"/>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" s="5"/>
+      <c r="B839" s="5"/>
+      <c r="C839" s="5"/>
+      <c r="D839" s="5"/>
+      <c r="E839" s="5"/>
+    </row>
+    <row r="840" spans="1:5">
+      <c r="A840" s="5"/>
+      <c r="B840" s="5"/>
+      <c r="C840" s="5"/>
+      <c r="D840" s="5"/>
+      <c r="E840" s="5"/>
+    </row>
+    <row r="841" spans="1:5">
+      <c r="A841" s="5"/>
+      <c r="B841" s="5"/>
+      <c r="C841" s="5"/>
+      <c r="D841" s="5"/>
+      <c r="E841" s="5"/>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="A842" s="5"/>
+      <c r="B842" s="5"/>
+      <c r="C842" s="5"/>
+      <c r="D842" s="5"/>
+      <c r="E842" s="5"/>
+    </row>
+    <row r="843" spans="1:5">
+      <c r="A843" s="5"/>
+      <c r="B843" s="5"/>
+      <c r="C843" s="5"/>
+      <c r="D843" s="5"/>
+      <c r="E843" s="5"/>
+    </row>
+    <row r="844" spans="1:5">
+      <c r="A844" s="5"/>
+      <c r="B844" s="5"/>
+      <c r="C844" s="5"/>
+      <c r="D844" s="5"/>
+      <c r="E844" s="5"/>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="A845" s="5"/>
+      <c r="B845" s="5"/>
+      <c r="C845" s="5"/>
+      <c r="D845" s="5"/>
+      <c r="E845" s="5"/>
+    </row>
+    <row r="846" spans="1:5">
+      <c r="A846" s="5"/>
+      <c r="B846" s="5"/>
+      <c r="C846" s="5"/>
+      <c r="D846" s="5"/>
+      <c r="E846" s="5"/>
+    </row>
+    <row r="847" spans="1:5">
+      <c r="A847" s="5"/>
+      <c r="B847" s="5"/>
+      <c r="C847" s="5"/>
+      <c r="D847" s="5"/>
+      <c r="E847" s="5"/>
+    </row>
+    <row r="848" spans="1:5">
+      <c r="A848" s="5"/>
+      <c r="B848" s="5"/>
+      <c r="C848" s="5"/>
+      <c r="D848" s="5"/>
+      <c r="E848" s="5"/>
+    </row>
+    <row r="849" spans="1:5">
+      <c r="A849" s="5"/>
+      <c r="B849" s="5"/>
+      <c r="C849" s="5"/>
+      <c r="D849" s="5"/>
+      <c r="E849" s="5"/>
+    </row>
+    <row r="850" spans="1:5">
+      <c r="A850" s="5"/>
+      <c r="B850" s="5"/>
+      <c r="C850" s="5"/>
+      <c r="D850" s="5"/>
+      <c r="E850" s="5"/>
+    </row>
+    <row r="851" spans="1:5">
+      <c r="A851" s="5"/>
+      <c r="B851" s="5"/>
+      <c r="C851" s="5"/>
+      <c r="D851" s="5"/>
+      <c r="E851" s="5"/>
+    </row>
+    <row r="852" spans="1:5">
+      <c r="A852" s="5"/>
+      <c r="B852" s="5"/>
+      <c r="C852" s="5"/>
+      <c r="D852" s="5"/>
+      <c r="E852" s="5"/>
+    </row>
+    <row r="853" spans="1:5">
+      <c r="A853" s="5"/>
+      <c r="B853" s="5"/>
+      <c r="C853" s="5"/>
+      <c r="D853" s="5"/>
+      <c r="E853" s="5"/>
+    </row>
+    <row r="854" spans="1:5">
+      <c r="A854" s="5"/>
+      <c r="B854" s="5"/>
+      <c r="C854" s="5"/>
+      <c r="D854" s="5"/>
+      <c r="E854" s="5"/>
+    </row>
+    <row r="855" spans="1:5">
+      <c r="A855" s="5"/>
+      <c r="B855" s="5"/>
+      <c r="C855" s="5"/>
+      <c r="D855" s="5"/>
+      <c r="E855" s="5"/>
+    </row>
+    <row r="856" spans="1:5">
+      <c r="A856" s="5"/>
+      <c r="B856" s="5"/>
+      <c r="C856" s="5"/>
+      <c r="D856" s="5"/>
+      <c r="E856" s="5"/>
+    </row>
+    <row r="857" spans="1:5">
+      <c r="A857" s="5"/>
+      <c r="B857" s="5"/>
+      <c r="C857" s="5"/>
+      <c r="D857" s="5"/>
+      <c r="E857" s="5"/>
+    </row>
+    <row r="858" spans="1:5">
+      <c r="A858" s="5"/>
+      <c r="B858" s="5"/>
+      <c r="C858" s="5"/>
+      <c r="D858" s="5"/>
+      <c r="E858" s="5"/>
+    </row>
+    <row r="859" spans="1:5">
+      <c r="A859" s="5"/>
+      <c r="B859" s="5"/>
+      <c r="C859" s="5"/>
+      <c r="D859" s="5"/>
+      <c r="E859" s="5"/>
+    </row>
+    <row r="860" spans="1:5">
+      <c r="A860" s="5"/>
+      <c r="B860" s="5"/>
+      <c r="C860" s="5"/>
+      <c r="D860" s="5"/>
+      <c r="E860" s="5"/>
+    </row>
+    <row r="861" spans="1:5">
+      <c r="A861" s="5"/>
+      <c r="B861" s="5"/>
+      <c r="C861" s="5"/>
+      <c r="D861" s="5"/>
+      <c r="E861" s="5"/>
+    </row>
+    <row r="862" spans="1:5">
+      <c r="A862" s="5"/>
+      <c r="B862" s="5"/>
+      <c r="C862" s="5"/>
+      <c r="D862" s="5"/>
+      <c r="E862" s="5"/>
+    </row>
+    <row r="863" spans="1:5">
+      <c r="A863" s="5"/>
+      <c r="B863" s="5"/>
+      <c r="C863" s="5"/>
+      <c r="D863" s="5"/>
+      <c r="E863" s="5"/>
+    </row>
+    <row r="864" spans="1:5">
+      <c r="A864" s="5"/>
+      <c r="B864" s="5"/>
+      <c r="C864" s="5"/>
+      <c r="D864" s="5"/>
+      <c r="E864" s="5"/>
+    </row>
+    <row r="865" spans="1:5">
+      <c r="A865" s="5"/>
+      <c r="B865" s="5"/>
+      <c r="C865" s="5"/>
+      <c r="D865" s="5"/>
+      <c r="E865" s="5"/>
+    </row>
+    <row r="866" spans="1:5">
+      <c r="A866" s="5"/>
+      <c r="B866" s="5"/>
+      <c r="C866" s="5"/>
+      <c r="D866" s="5"/>
+      <c r="E866" s="5"/>
+    </row>
+    <row r="867" spans="1:5">
+      <c r="A867" s="5"/>
+      <c r="B867" s="5"/>
+      <c r="C867" s="5"/>
+      <c r="D867" s="5"/>
+      <c r="E867" s="5"/>
+    </row>
+    <row r="868" spans="1:5">
+      <c r="A868" s="5"/>
+      <c r="B868" s="5"/>
+      <c r="C868" s="5"/>
+      <c r="D868" s="5"/>
+      <c r="E868" s="5"/>
+    </row>
+    <row r="869" spans="1:5">
+      <c r="A869" s="5"/>
+      <c r="B869" s="5"/>
+      <c r="C869" s="5"/>
+      <c r="D869" s="5"/>
+      <c r="E869" s="5"/>
+    </row>
+    <row r="870" spans="1:5">
+      <c r="A870" s="5"/>
+      <c r="B870" s="5"/>
+      <c r="C870" s="5"/>
+      <c r="D870" s="5"/>
+      <c r="E870" s="5"/>
+    </row>
+    <row r="871" spans="1:5">
+      <c r="A871" s="5"/>
+      <c r="B871" s="5"/>
+      <c r="C871" s="5"/>
+      <c r="D871" s="5"/>
+      <c r="E871" s="5"/>
+    </row>
+    <row r="872" spans="1:5">
+      <c r="A872" s="5"/>
+      <c r="B872" s="5"/>
+      <c r="C872" s="5"/>
+      <c r="D872" s="5"/>
+      <c r="E872" s="5"/>
+    </row>
+    <row r="873" spans="1:5">
+      <c r="A873" s="5"/>
+      <c r="B873" s="5"/>
+      <c r="C873" s="5"/>
+      <c r="D873" s="5"/>
+      <c r="E873" s="5"/>
+    </row>
+    <row r="874" spans="1:5">
+      <c r="A874" s="5"/>
+      <c r="B874" s="5"/>
+      <c r="C874" s="5"/>
+      <c r="D874" s="5"/>
+      <c r="E874" s="5"/>
+    </row>
+    <row r="875" spans="1:5">
+      <c r="A875" s="5"/>
+      <c r="B875" s="5"/>
+      <c r="C875" s="5"/>
+      <c r="D875" s="5"/>
+      <c r="E875" s="5"/>
+    </row>
+    <row r="876" spans="1:5">
+      <c r="A876" s="5"/>
+      <c r="B876" s="5"/>
+      <c r="C876" s="5"/>
+      <c r="D876" s="5"/>
+      <c r="E876" s="5"/>
+    </row>
+    <row r="877" spans="1:5">
+      <c r="A877" s="5"/>
+      <c r="B877" s="5"/>
+      <c r="C877" s="5"/>
+      <c r="D877" s="5"/>
+      <c r="E877" s="5"/>
+    </row>
+    <row r="878" spans="1:5">
+      <c r="A878" s="5"/>
+      <c r="B878" s="5"/>
+      <c r="C878" s="5"/>
+      <c r="D878" s="5"/>
+      <c r="E878" s="5"/>
+    </row>
+    <row r="879" spans="1:5">
+      <c r="A879" s="5"/>
+      <c r="B879" s="5"/>
+      <c r="C879" s="5"/>
+      <c r="D879" s="5"/>
+      <c r="E879" s="5"/>
+    </row>
+    <row r="880" spans="1:5">
+      <c r="A880" s="5"/>
+      <c r="B880" s="5"/>
+      <c r="C880" s="5"/>
+      <c r="D880" s="5"/>
+      <c r="E880" s="5"/>
+    </row>
+    <row r="881" spans="1:5">
+      <c r="A881" s="5"/>
+      <c r="B881" s="5"/>
+      <c r="C881" s="5"/>
+      <c r="D881" s="5"/>
+      <c r="E881" s="5"/>
+    </row>
+    <row r="882" spans="1:5">
+      <c r="A882" s="5"/>
+      <c r="B882" s="5"/>
+      <c r="C882" s="5"/>
+      <c r="D882" s="5"/>
+      <c r="E882" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fungal_BGCs/fungal_BGCs.xlsx
+++ b/fungal_BGCs/fungal_BGCs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymatsuda/Documents/GitHub/funbgcex-data/fungal_BGCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD47689-4A5E-7144-BB45-F2F0A852F05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454E12B-D530-AA4C-9AB4-39FB06FF5B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{262B9C92-DFEA-AD46-B5ED-DE92F47A4C4A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{262B9C92-DFEA-AD46-B5ED-DE92F47A4C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S10" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table S10'!$A$2:$E$847</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table S10'!$A$2:$E$849</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="2574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="2581">
   <si>
     <t>FBGC00001</t>
     <phoneticPr fontId="1"/>
@@ -9479,6 +9479,27 @@
   <si>
     <t>Phaeosphaeria sp. HX1035</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FBGC00764</t>
+  </si>
+  <si>
+    <t>FBGC00765</t>
+  </si>
+  <si>
+    <t>CPI-2</t>
+  </si>
+  <si>
+    <t>Aspergillus flavus NRRL3357</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>10.1101/2024.10.09.617497</t>
+  </si>
+  <si>
+    <t>t-ES-L-Tyr-cadaverine</t>
   </si>
 </sst>
 </file>
@@ -9615,6 +9636,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9623,12 +9650,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9944,10 +9965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE711D-66D2-B242-9BC0-F7F6F031DFD4}">
-  <dimension ref="A1:E882"/>
+  <dimension ref="A1:E884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A766" sqref="A766:XFD783"/>
+    <sheetView tabSelected="1" topLeftCell="A757" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G770" sqref="G770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9961,24 +9982,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>2199</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>2224</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2225</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>2222</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>2223</v>
       </c>
@@ -22959,612 +22980,632 @@
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="3" t="s">
-        <v>2124</v>
+        <v>2574</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2125</v>
+        <v>2576</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D766" s="4">
-        <v>36524608</v>
+        <v>2577</v>
+      </c>
+      <c r="D766" s="3" t="s">
+        <v>2578</v>
       </c>
       <c r="E766" s="3" t="s">
-        <v>2200</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="767" spans="1:5">
       <c r="A767" s="3" t="s">
-        <v>2127</v>
+        <v>2575</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>2128</v>
+        <v>2580</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D767" s="4">
-        <v>28371074</v>
+        <v>2577</v>
+      </c>
+      <c r="D767" s="3" t="s">
+        <v>2578</v>
       </c>
       <c r="E767" s="3" t="s">
-        <v>2201</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="3" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>2131</v>
-      </c>
-      <c r="D768" s="3">
-        <v>31535864</v>
+        <v>2126</v>
+      </c>
+      <c r="D768" s="4">
+        <v>36524608</v>
       </c>
       <c r="E768" s="3" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="3" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="D769" s="4">
-        <v>30051576</v>
-      </c>
-      <c r="E769" s="4" t="s">
-        <v>2203</v>
+        <v>28371074</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>2201</v>
       </c>
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="3" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>2050</v>
+        <v>2131</v>
       </c>
       <c r="D770" s="3">
-        <v>26340065</v>
+        <v>31535864</v>
       </c>
       <c r="E770" s="3" t="s">
-        <v>1794</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="3" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D771" s="3">
-        <v>26783060</v>
-      </c>
-      <c r="E771" s="3" t="s">
-        <v>2204</v>
+        <v>2134</v>
+      </c>
+      <c r="D771" s="4">
+        <v>30051576</v>
+      </c>
+      <c r="E771" s="4" t="s">
+        <v>2203</v>
       </c>
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="3" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D772" s="4">
-        <v>26978228</v>
+        <v>2050</v>
+      </c>
+      <c r="D772" s="3">
+        <v>26340065</v>
       </c>
       <c r="E772" s="3" t="s">
-        <v>2205</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="3" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="D773" s="3">
-        <v>36484777</v>
+        <v>26783060</v>
       </c>
       <c r="E773" s="3" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="3" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>2145</v>
-      </c>
-      <c r="D774" s="3">
-        <v>36484777</v>
+        <v>2142</v>
+      </c>
+      <c r="D774" s="4">
+        <v>26978228</v>
       </c>
       <c r="E774" s="3" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="3" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D775" s="3" t="s">
-        <v>357</v>
+        <v>2145</v>
+      </c>
+      <c r="D775" s="3">
+        <v>36484777</v>
       </c>
       <c r="E775" s="3" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="776" spans="1:5">
       <c r="A776" s="3" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D776" s="3" t="s">
-        <v>357</v>
+        <v>2145</v>
+      </c>
+      <c r="D776" s="3">
+        <v>36484777</v>
       </c>
       <c r="E776" s="3" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="3" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>2156</v>
-      </c>
-      <c r="D777" s="3">
-        <v>35017571</v>
+        <v>2150</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E777" s="3" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="3" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>2159</v>
-      </c>
-      <c r="D778" s="3">
-        <v>34432466</v>
+        <v>2153</v>
+      </c>
+      <c r="D778" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E778" s="3" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="3" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="D779" s="3">
-        <v>33688736</v>
+        <v>35017571</v>
       </c>
       <c r="E779" s="3" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="3" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="D780" s="3">
-        <v>33480256</v>
+        <v>34432466</v>
       </c>
       <c r="E780" s="3" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="3" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="D781" s="3">
-        <v>32286350</v>
+        <v>33688736</v>
       </c>
       <c r="E781" s="3" t="s">
-        <v>862</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="3" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>2147</v>
+        <v>2164</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="D782" s="3">
-        <v>34430202</v>
+        <v>33480256</v>
       </c>
       <c r="E782" s="3" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="3" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="D783" s="3">
-        <v>18957608</v>
+        <v>32286350</v>
       </c>
       <c r="E783" s="3" t="s">
-        <v>2214</v>
+        <v>862</v>
       </c>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="3" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2175</v>
+        <v>2147</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="D784" s="3">
-        <v>29797385</v>
+        <v>34430202</v>
       </c>
       <c r="E784" s="3" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="785" spans="1:5">
       <c r="A785" s="3" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="D785" s="3">
-        <v>29797385</v>
+        <v>18957608</v>
       </c>
       <c r="E785" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="3" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="D786" s="3">
-        <v>30556556</v>
+        <v>29797385</v>
       </c>
       <c r="E786" s="3" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="787" spans="1:5">
       <c r="A787" s="3" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="D787" s="3">
-        <v>31180682</v>
+        <v>29797385</v>
       </c>
       <c r="E787" s="3" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="3" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="D788" s="3">
-        <v>31086874</v>
+        <v>30556556</v>
       </c>
       <c r="E788" s="3" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="789" spans="1:5">
       <c r="A789" s="3" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>1973</v>
+        <v>2183</v>
       </c>
       <c r="C789" s="3" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="D789" s="3">
-        <v>29373009</v>
+        <v>31180682</v>
       </c>
       <c r="E789" s="3" t="s">
-        <v>1975</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="790" spans="1:5">
       <c r="A790" s="3" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="D790" s="3">
-        <v>24848421</v>
+        <v>31086874</v>
       </c>
       <c r="E790" s="3" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="791" spans="1:5">
       <c r="A791" s="3" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>2194</v>
+        <v>1973</v>
       </c>
       <c r="C791" s="3" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="D791" s="3">
-        <v>16839576</v>
+        <v>29373009</v>
       </c>
       <c r="E791" s="3" t="s">
-        <v>2220</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D792" s="3">
+        <v>24848421</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5">
+      <c r="A793" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D793" s="3">
+        <v>16839576</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="A794" s="3" t="s">
         <v>2196</v>
       </c>
-      <c r="B792" s="3" t="s">
+      <c r="B794" s="3" t="s">
         <v>2197</v>
       </c>
-      <c r="C792" s="3" t="s">
+      <c r="C794" s="3" t="s">
         <v>2198</v>
       </c>
-      <c r="D792" s="3">
+      <c r="D794" s="3">
         <v>19097780</v>
       </c>
-      <c r="E792" s="3" t="s">
+      <c r="E794" s="3" t="s">
         <v>2221</v>
       </c>
     </row>
-    <row r="793" spans="1:5">
-      <c r="A793" s="9" t="s">
+    <row r="795" spans="1:5">
+      <c r="A795" s="6" t="s">
         <v>2226</v>
       </c>
-      <c r="B793" s="9" t="s">
+      <c r="B795" s="6" t="s">
         <v>2227</v>
       </c>
-      <c r="C793" s="9" t="s">
+      <c r="C795" s="6" t="s">
         <v>2236</v>
-      </c>
-      <c r="D793" s="3">
-        <v>32286350</v>
-      </c>
-      <c r="E793" s="10" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="794" spans="1:5">
-      <c r="A794" s="9" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B794" s="9" t="s">
-        <v>2237</v>
-      </c>
-      <c r="C794" s="9" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D794" s="3">
-        <v>32286350</v>
-      </c>
-      <c r="E794" s="10" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="795" spans="1:5">
-      <c r="A795" s="9" t="s">
-        <v>2229</v>
-      </c>
-      <c r="B795" s="9" t="s">
-        <v>2230</v>
-      </c>
-      <c r="C795" s="9" t="s">
-        <v>2239</v>
       </c>
       <c r="D795" s="3">
         <v>32286350</v>
       </c>
-      <c r="E795" s="10" t="s">
-        <v>2252</v>
+      <c r="E795" s="7" t="s">
+        <v>2250</v>
       </c>
     </row>
     <row r="796" spans="1:5">
-      <c r="A796" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B796" s="9" t="s">
-        <v>2240</v>
-      </c>
-      <c r="C796" s="9" t="s">
-        <v>2241</v>
+      <c r="A796" s="6" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B796" s="6" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C796" s="6" t="s">
+        <v>2238</v>
       </c>
       <c r="D796" s="3">
         <v>32286350</v>
       </c>
-      <c r="E796" s="10" t="s">
+      <c r="E796" s="7" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5">
+      <c r="A797" s="6" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B797" s="6" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C797" s="6" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D797" s="3">
+        <v>32286350</v>
+      </c>
+      <c r="E797" s="7" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" s="6" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B798" s="6" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C798" s="6" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D798" s="3">
+        <v>32286350</v>
+      </c>
+      <c r="E798" s="7" t="s">
         <v>2253</v>
       </c>
     </row>
-    <row r="797" spans="1:5">
-      <c r="A797" s="9" t="s">
+    <row r="799" spans="1:5">
+      <c r="A799" s="6" t="s">
         <v>2242</v>
       </c>
-      <c r="B797" s="9" t="s">
+      <c r="B799" s="6" t="s">
         <v>2243</v>
       </c>
-      <c r="C797" s="9" t="s">
+      <c r="C799" s="6" t="s">
         <v>2244</v>
       </c>
-      <c r="D797" s="3">
+      <c r="D799" s="3">
         <v>38904208</v>
       </c>
-      <c r="E797" s="10" t="s">
+      <c r="E799" s="7" t="s">
         <v>2254</v>
       </c>
     </row>
-    <row r="798" spans="1:5">
-      <c r="A798" s="9" t="s">
+    <row r="800" spans="1:5">
+      <c r="A800" s="6" t="s">
         <v>2233</v>
       </c>
-      <c r="B798" s="9" t="s">
+      <c r="B800" s="6" t="s">
         <v>2245</v>
       </c>
-      <c r="C798" s="9" t="s">
+      <c r="C800" s="6" t="s">
         <v>2244</v>
       </c>
-      <c r="D798" s="3">
+      <c r="D800" s="3">
         <v>38904208</v>
       </c>
-      <c r="E798" s="10" t="s">
+      <c r="E800" s="7" t="s">
         <v>2254</v>
       </c>
     </row>
-    <row r="799" spans="1:5">
-      <c r="A799" s="9" t="s">
+    <row r="801" spans="1:5">
+      <c r="A801" s="6" t="s">
         <v>2234</v>
       </c>
-      <c r="B799" s="9" t="s">
+      <c r="B801" s="6" t="s">
         <v>2246</v>
       </c>
-      <c r="C799" s="9" t="s">
+      <c r="C801" s="6" t="s">
         <v>2247</v>
       </c>
-      <c r="D799" s="3">
+      <c r="D801" s="3">
         <v>38815056</v>
       </c>
-      <c r="E799" s="10" t="s">
+      <c r="E801" s="7" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="800" spans="1:5">
-      <c r="A800" s="9" t="s">
+    <row r="802" spans="1:5">
+      <c r="A802" s="6" t="s">
         <v>2235</v>
       </c>
-      <c r="B800" s="9" t="s">
+      <c r="B802" s="6" t="s">
         <v>2248</v>
       </c>
-      <c r="C800" s="9" t="s">
+      <c r="C802" s="6" t="s">
         <v>2249</v>
       </c>
-      <c r="D800" s="3">
+      <c r="D802" s="3">
         <v>36879280</v>
       </c>
-      <c r="E800" s="10" t="s">
+      <c r="E802" s="7" t="s">
         <v>2256</v>
       </c>
-    </row>
-    <row r="801" spans="1:5">
-      <c r="A801" s="5"/>
-      <c r="B801" s="5"/>
-      <c r="C801" s="5"/>
-      <c r="D801" s="5"/>
-      <c r="E801" s="5"/>
-    </row>
-    <row r="802" spans="1:5">
-      <c r="A802" s="5"/>
-      <c r="B802" s="5"/>
-      <c r="C802" s="5"/>
-      <c r="D802" s="5"/>
-      <c r="E802" s="5"/>
     </row>
     <row r="803" spans="1:5">
       <c r="A803" s="5"/>
@@ -24125,6 +24166,20 @@
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
+    </row>
+    <row r="883" spans="1:5">
+      <c r="A883" s="5"/>
+      <c r="B883" s="5"/>
+      <c r="C883" s="5"/>
+      <c r="D883" s="5"/>
+      <c r="E883" s="5"/>
+    </row>
+    <row r="884" spans="1:5">
+      <c r="A884" s="5"/>
+      <c r="B884" s="5"/>
+      <c r="C884" s="5"/>
+      <c r="D884" s="5"/>
+      <c r="E884" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fungal_BGCs/fungal_BGCs.xlsx
+++ b/fungal_BGCs/fungal_BGCs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymatsuda/Documents/GitHub/funbgcex-data/fungal_BGCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454E12B-D530-AA4C-9AB4-39FB06FF5B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244115D0-4B77-F145-87D5-86D93CAAD7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{262B9C92-DFEA-AD46-B5ED-DE92F47A4C4A}"/>
+    <workbookView xWindow="13540" yWindow="4560" windowWidth="28800" windowHeight="16600" xr2:uid="{262B9C92-DFEA-AD46-B5ED-DE92F47A4C4A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table S10" sheetId="1" r:id="rId1"/>
+    <sheet name="fungal BGCs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table S10'!$A$2:$E$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fungal BGCs'!$A$2:$E$849</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -9967,8 +9967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE711D-66D2-B242-9BC0-F7F6F031DFD4}">
   <dimension ref="A1:E884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A757" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G770" sqref="G770"/>
+    <sheetView tabSelected="1" topLeftCell="A749" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B783" sqref="B783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/fungal_BGCs/fungal_BGCs.xlsx
+++ b/fungal_BGCs/fungal_BGCs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymatsuda/Documents/GitHub/funbgcex-data/fungal_BGCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244115D0-4B77-F145-87D5-86D93CAAD7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1935C2-2719-9F4E-AACE-077CDB334491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="4560" windowWidth="28800" windowHeight="16600" xr2:uid="{262B9C92-DFEA-AD46-B5ED-DE92F47A4C4A}"/>
+    <workbookView xWindow="6080" yWindow="2320" windowWidth="37540" windowHeight="18940" xr2:uid="{262B9C92-DFEA-AD46-B5ED-DE92F47A4C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="fungal BGCs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fungal BGCs'!$A$2:$E$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fungal BGCs'!$A$2:$E$884</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="2730">
   <si>
     <t>FBGC00001</t>
     <phoneticPr fontId="1"/>
@@ -9500,6 +9500,453 @@
   </si>
   <si>
     <t>t-ES-L-Tyr-cadaverine</t>
+  </si>
+  <si>
+    <t>FBGC00766</t>
+  </si>
+  <si>
+    <t>FBGC00767</t>
+  </si>
+  <si>
+    <t>FBGC00768</t>
+  </si>
+  <si>
+    <t>FBGC00769</t>
+  </si>
+  <si>
+    <t>FBGC00770</t>
+  </si>
+  <si>
+    <t>FBGC00771</t>
+  </si>
+  <si>
+    <t>FBGC00772</t>
+  </si>
+  <si>
+    <t>FBGC00773</t>
+  </si>
+  <si>
+    <t>FBGC00774</t>
+  </si>
+  <si>
+    <t>FBGC00775</t>
+  </si>
+  <si>
+    <t>FBGC00776</t>
+  </si>
+  <si>
+    <t>FBGC00777</t>
+  </si>
+  <si>
+    <t>FBGC00778</t>
+  </si>
+  <si>
+    <t>FBGC00779</t>
+  </si>
+  <si>
+    <t>FBGC00780</t>
+  </si>
+  <si>
+    <t>FBGC00781</t>
+  </si>
+  <si>
+    <t>FBGC00782</t>
+  </si>
+  <si>
+    <t>FBGC00783</t>
+  </si>
+  <si>
+    <t>FBGC00784</t>
+  </si>
+  <si>
+    <t>FBGC00785</t>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.5c00328</t>
+  </si>
+  <si>
+    <t>FBGC00786</t>
+  </si>
+  <si>
+    <t>FBGC00787</t>
+  </si>
+  <si>
+    <t>FBGC00788</t>
+  </si>
+  <si>
+    <t>FBGC00789</t>
+  </si>
+  <si>
+    <t>FBGC00790</t>
+  </si>
+  <si>
+    <t>FBGC00791</t>
+  </si>
+  <si>
+    <t>FBGC00792</t>
+  </si>
+  <si>
+    <t>FBGC00793</t>
+  </si>
+  <si>
+    <t>FBGC00794</t>
+  </si>
+  <si>
+    <t>FBGC00795</t>
+  </si>
+  <si>
+    <t>FBGC00796</t>
+  </si>
+  <si>
+    <t>FBGC00797</t>
+  </si>
+  <si>
+    <t>FBGC00798</t>
+  </si>
+  <si>
+    <t>FBGC00799</t>
+  </si>
+  <si>
+    <t>FBGC00800</t>
+  </si>
+  <si>
+    <t>berkeleylactone J derivative</t>
+  </si>
+  <si>
+    <t>Penicillium expansum CMP-1</t>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c03588</t>
+  </si>
+  <si>
+    <t>aspertetranone A</t>
+  </si>
+  <si>
+    <t>Aspergillus ochraceus LZDX-32-15</t>
+  </si>
+  <si>
+    <t>10.1039/d4sc05590j</t>
+  </si>
+  <si>
+    <t>aquastatin A</t>
+  </si>
+  <si>
+    <t>Austroacremonium gemini MST-FP2131</t>
+  </si>
+  <si>
+    <t>10.1039/d4sc05557h</t>
+  </si>
+  <si>
+    <t>oxybergamotene D</t>
+  </si>
+  <si>
+    <t>Trichoderma erinaceum F1-1</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.4c00905</t>
+  </si>
+  <si>
+    <t>geraniol</t>
+  </si>
+  <si>
+    <t>Penicillium griseofulvum NRRL 35584</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jafc.4c06818</t>
+  </si>
+  <si>
+    <t>PF1163A</t>
+  </si>
+  <si>
+    <t>Penicillium sumatraense CBS 127363</t>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c03675</t>
+  </si>
+  <si>
+    <t>trichogalactin</t>
+  </si>
+  <si>
+    <t>Trichoderma harzianum T6776</t>
+  </si>
+  <si>
+    <t>10.1002/cbic.202400846</t>
+  </si>
+  <si>
+    <t>clavatol</t>
+  </si>
+  <si>
+    <t>Diaporthe sp. SYSU-MS4722</t>
+  </si>
+  <si>
+    <t>10.1016/j.bioorg.2024.108081</t>
+  </si>
+  <si>
+    <t>aspterric acid</t>
+  </si>
+  <si>
+    <t>Penicillium brasilianum CGMCC 3.4402</t>
+  </si>
+  <si>
+    <t>10.1007/s00253-024-13282-4</t>
+  </si>
+  <si>
+    <t>arpenibisabolane C</t>
+  </si>
+  <si>
+    <t>acrophialocinol</t>
+  </si>
+  <si>
+    <t>Acrophialophora levis IBWF127-08</t>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.4c04656</t>
+  </si>
+  <si>
+    <t>rhynchospene A</t>
+  </si>
+  <si>
+    <t>Rhynchosporium graminicola WAI453</t>
+  </si>
+  <si>
+    <t>10.1021/acschembio.4c00731</t>
+  </si>
+  <si>
+    <t>aristolochene derivative</t>
+  </si>
+  <si>
+    <t>Menisporopsis theobromae BCC 4162</t>
+  </si>
+  <si>
+    <t>10.1002/cbdv.202402944</t>
+  </si>
+  <si>
+    <t>xylindein</t>
+  </si>
+  <si>
+    <t>Chlorociboria aeruginascens CBS 122017</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.4c00350</t>
+  </si>
+  <si>
+    <t>polyol lipids</t>
+  </si>
+  <si>
+    <t>Beauveria bassiana ARSEF 2860</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.4c15577</t>
+  </si>
+  <si>
+    <t>hirsutanes</t>
+  </si>
+  <si>
+    <t>Stereum hirsutum FP-91666 SS1</t>
+  </si>
+  <si>
+    <t>10.1128/AEM.00036-18</t>
+  </si>
+  <si>
+    <t>lienhwalide D</t>
+  </si>
+  <si>
+    <t>Hypoxylon lienhwacheense MFLUCC 14-1231</t>
+  </si>
+  <si>
+    <t>10.1002/cbic.202500037</t>
+  </si>
+  <si>
+    <t>ophioceric acid</t>
+  </si>
+  <si>
+    <t>Beauveria felina 3.6633</t>
+  </si>
+  <si>
+    <t>10.1021/acs.orglett.5c00062</t>
+  </si>
+  <si>
+    <t>roquesalin B</t>
+  </si>
+  <si>
+    <t>Penicillium roqueforti LCP96 04111</t>
+  </si>
+  <si>
+    <t>aspkyncin</t>
+  </si>
+  <si>
+    <t>Aspergillus aculeatus CRI323-04</t>
+  </si>
+  <si>
+    <t>10.3390/jof11030171</t>
+  </si>
+  <si>
+    <t>paraphaeones</t>
+  </si>
+  <si>
+    <t>Paraphaeosphaeria sp. C-XB-J-1</t>
+  </si>
+  <si>
+    <t>10.1016/j.bioorg.2024.107315</t>
+  </si>
+  <si>
+    <t>sydonic acid</t>
+  </si>
+  <si>
+    <t>Aspergillus puulaauensis IBT 32284</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.4c17818</t>
+  </si>
+  <si>
+    <t>radarin A</t>
+  </si>
+  <si>
+    <t>Aspergillus sulphureus CBS 550.65</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.4c18232</t>
+  </si>
+  <si>
+    <t>roseyrin</t>
+  </si>
+  <si>
+    <t>fusamarins</t>
+  </si>
+  <si>
+    <t>Fusarium mangiferae MRC7560</t>
+  </si>
+  <si>
+    <t>10.1002/cbic.202200342</t>
+  </si>
+  <si>
+    <t>unnamed indole diterpenoids</t>
+  </si>
+  <si>
+    <t>Aspergillus tubingensis CBS 134.48</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.5b06108</t>
+  </si>
+  <si>
+    <t>anominine</t>
+  </si>
+  <si>
+    <t>aflavinine</t>
+  </si>
+  <si>
+    <t>cochliodone A</t>
+  </si>
+  <si>
+    <t>Chaetomium globosum CBS 148.51</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.5c03717</t>
+  </si>
+  <si>
+    <t>(-)-auranthine</t>
+  </si>
+  <si>
+    <t>Aspergillus lentulus IFM 58399</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.5c00470</t>
+  </si>
+  <si>
+    <t>(+)-auranthine</t>
+  </si>
+  <si>
+    <t>Aspergillus lentulus MYA-3566</t>
+  </si>
+  <si>
+    <t>(-)-vinigrol</t>
+  </si>
+  <si>
+    <t>Virgaria nigra NBRC 9238</t>
+  </si>
+  <si>
+    <t>10.1002/anie.202416795</t>
+  </si>
+  <si>
+    <t>(-)-vinigrol or its analogue</t>
+  </si>
+  <si>
+    <t>Daldinia grandis CBS 114736</t>
+  </si>
+  <si>
+    <t>Xylariaceae sp. AK1471</t>
+  </si>
+  <si>
+    <t>FPROT00036</t>
+  </si>
+  <si>
+    <t>FPROT00037</t>
+  </si>
+  <si>
+    <t>FPROT00038</t>
+  </si>
+  <si>
+    <t>FPROT00040</t>
+  </si>
+  <si>
+    <t>FPROT00041</t>
+  </si>
+  <si>
+    <t>FPROT00042</t>
+  </si>
+  <si>
+    <t>dhilirolide A</t>
+  </si>
+  <si>
+    <t>Penicillium purpurogenum AN13</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.4c09298</t>
+  </si>
+  <si>
+    <t>orsellinaldehyde</t>
+  </si>
+  <si>
+    <t>Hericium erinaceus CBS 302.89</t>
+  </si>
+  <si>
+    <t>10.3390/molecules29235576</t>
+  </si>
+  <si>
+    <t>(-)-sandaracopimaradiene</t>
+  </si>
+  <si>
+    <t>Apiospora sacchari Kumo-3</t>
+  </si>
+  <si>
+    <t>10.3762/bjoc.20.65</t>
+  </si>
+  <si>
+    <t>FPROT00039</t>
+  </si>
+  <si>
+    <t>Apiospora sacchari MPU169</t>
+  </si>
+  <si>
+    <t>Metarhizium indigoticum NBRC 100684</t>
+  </si>
+  <si>
+    <t>3-keto-dehydrosulphurenic acid</t>
+  </si>
+  <si>
+    <t>Antrodia cinnamomea</t>
+  </si>
+  <si>
+    <t>10.1002/anie.202420104</t>
+  </si>
+  <si>
+    <t>malfilamentoside C</t>
+  </si>
+  <si>
+    <t>Penicillium sp. HDN15–312</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jnatprod.4c01190</t>
   </si>
 </sst>
 </file>
@@ -9965,10 +10412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE711D-66D2-B242-9BC0-F7F6F031DFD4}">
-  <dimension ref="A1:E884"/>
+  <dimension ref="A1:E919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A749" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B783" sqref="B783"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23014,892 +23461,1312 @@
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="3" t="s">
-        <v>2124</v>
+        <v>2581</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>2125</v>
+        <v>2617</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D768" s="4">
-        <v>36524608</v>
+        <v>2618</v>
+      </c>
+      <c r="D768" s="3">
+        <v>39415106</v>
       </c>
       <c r="E768" s="3" t="s">
-        <v>2200</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="3" t="s">
-        <v>2127</v>
+        <v>2582</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>2128</v>
+        <v>2620</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D769" s="4">
-        <v>28371074</v>
+        <v>2621</v>
+      </c>
+      <c r="D769" s="3">
+        <v>39430940</v>
       </c>
       <c r="E769" s="3" t="s">
-        <v>2201</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="3" t="s">
-        <v>2130</v>
+        <v>2583</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>2128</v>
+        <v>2623</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>2131</v>
+        <v>2624</v>
       </c>
       <c r="D770" s="3">
-        <v>31535864</v>
+        <v>39479171</v>
       </c>
       <c r="E770" s="3" t="s">
-        <v>2202</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="3" t="s">
-        <v>2132</v>
+        <v>2584</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>2133</v>
+        <v>2626</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D771" s="4">
-        <v>30051576</v>
-      </c>
-      <c r="E771" s="4" t="s">
-        <v>2203</v>
+        <v>2627</v>
+      </c>
+      <c r="D771" s="3">
+        <v>39623525</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>2628</v>
       </c>
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="3" t="s">
-        <v>2135</v>
+        <v>2585</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>2136</v>
+        <v>2629</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>2050</v>
+        <v>2630</v>
       </c>
       <c r="D772" s="3">
-        <v>26340065</v>
+        <v>39449585</v>
       </c>
       <c r="E772" s="3" t="s">
-        <v>1794</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="3" t="s">
-        <v>2137</v>
+        <v>2586</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>2138</v>
+        <v>2632</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>2139</v>
+        <v>2633</v>
       </c>
       <c r="D773" s="3">
-        <v>26783060</v>
+        <v>39719272</v>
       </c>
       <c r="E773" s="3" t="s">
-        <v>2204</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="3" t="s">
-        <v>2140</v>
+        <v>2587</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>2141</v>
+        <v>2635</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D774" s="4">
-        <v>26978228</v>
+        <v>2636</v>
+      </c>
+      <c r="D774" s="3">
+        <v>39714375</v>
       </c>
       <c r="E774" s="3" t="s">
-        <v>2205</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="3" t="s">
-        <v>2143</v>
+        <v>2588</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>2144</v>
+        <v>2638</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>2145</v>
+        <v>2639</v>
       </c>
       <c r="D775" s="3">
-        <v>36484777</v>
+        <v>39742673</v>
       </c>
       <c r="E775" s="3" t="s">
-        <v>2206</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="776" spans="1:5">
       <c r="A776" s="3" t="s">
-        <v>2146</v>
+        <v>2589</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>2147</v>
+        <v>2641</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>2145</v>
+        <v>2642</v>
       </c>
       <c r="D776" s="3">
-        <v>36484777</v>
+        <v>39264460</v>
       </c>
       <c r="E776" s="3" t="s">
-        <v>2206</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="3" t="s">
-        <v>2148</v>
+        <v>2590</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>2149</v>
+        <v>2644</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D777" s="3" t="s">
-        <v>357</v>
+        <v>2642</v>
+      </c>
+      <c r="D777" s="3">
+        <v>39264460</v>
       </c>
       <c r="E777" s="3" t="s">
-        <v>2207</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="3" t="s">
-        <v>2151</v>
+        <v>2591</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>2152</v>
+        <v>2645</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D778" s="3" t="s">
-        <v>357</v>
+        <v>2646</v>
+      </c>
+      <c r="D778" s="3">
+        <v>39842789</v>
       </c>
       <c r="E778" s="3" t="s">
-        <v>2208</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="3" t="s">
-        <v>2154</v>
+        <v>2592</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>2155</v>
+        <v>2648</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>2156</v>
+        <v>2649</v>
       </c>
       <c r="D779" s="3">
-        <v>35017571</v>
+        <v>39937077</v>
       </c>
       <c r="E779" s="3" t="s">
-        <v>2209</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="3" t="s">
-        <v>2157</v>
+        <v>2593</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2158</v>
+        <v>2651</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>2159</v>
+        <v>2652</v>
       </c>
       <c r="D780" s="3">
-        <v>34432466</v>
+        <v>39869062</v>
       </c>
       <c r="E780" s="3" t="s">
-        <v>2210</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="3" t="s">
-        <v>2160</v>
+        <v>2594</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>2161</v>
+        <v>2654</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>2162</v>
+        <v>2655</v>
       </c>
       <c r="D781" s="3">
-        <v>33688736</v>
+        <v>39847046</v>
       </c>
       <c r="E781" s="3" t="s">
-        <v>2211</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="3" t="s">
-        <v>2163</v>
+        <v>2595</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>2164</v>
+        <v>2657</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>2165</v>
+        <v>2658</v>
       </c>
       <c r="D782" s="3">
-        <v>33480256</v>
+        <v>39883118</v>
       </c>
       <c r="E782" s="3" t="s">
-        <v>2212</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="3" t="s">
-        <v>2166</v>
+        <v>2596</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>2167</v>
+        <v>2660</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>2168</v>
+        <v>2661</v>
       </c>
       <c r="D783" s="3">
-        <v>32286350</v>
+        <v>29625976</v>
       </c>
       <c r="E783" s="3" t="s">
-        <v>862</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="3" t="s">
-        <v>2169</v>
+        <v>2597</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2147</v>
+        <v>2663</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>2170</v>
+        <v>2664</v>
       </c>
       <c r="D784" s="3">
-        <v>34430202</v>
+        <v>40052702</v>
       </c>
       <c r="E784" s="3" t="s">
-        <v>2213</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="785" spans="1:5">
       <c r="A785" s="3" t="s">
-        <v>2171</v>
+        <v>2598</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>2172</v>
+        <v>2663</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>2173</v>
+        <v>2664</v>
       </c>
       <c r="D785" s="3">
-        <v>18957608</v>
+        <v>40052702</v>
       </c>
       <c r="E785" s="3" t="s">
-        <v>2214</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="3" t="s">
-        <v>2174</v>
+        <v>2599</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>2175</v>
+        <v>2666</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>2176</v>
+        <v>2667</v>
       </c>
       <c r="D786" s="3">
-        <v>29797385</v>
+        <v>39915105</v>
       </c>
       <c r="E786" s="3" t="s">
-        <v>2215</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="787" spans="1:5">
       <c r="A787" s="3" t="s">
-        <v>2177</v>
+        <v>2600</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>2175</v>
+        <v>2669</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>2178</v>
+        <v>2670</v>
       </c>
       <c r="D787" s="3">
-        <v>29797385</v>
+        <v>40029258</v>
       </c>
       <c r="E787" s="3" t="s">
-        <v>2215</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="3" t="s">
-        <v>2179</v>
+        <v>2602</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2180</v>
+        <v>2671</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D788" s="3">
-        <v>30556556</v>
+        <v>2672</v>
+      </c>
+      <c r="D788" s="3" t="s">
+        <v>2578</v>
       </c>
       <c r="E788" s="3" t="s">
-        <v>2216</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="789" spans="1:5">
       <c r="A789" s="3" t="s">
-        <v>2182</v>
+        <v>2603</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>2183</v>
+        <v>2674</v>
       </c>
       <c r="C789" s="3" t="s">
-        <v>2184</v>
+        <v>2675</v>
       </c>
       <c r="D789" s="3">
-        <v>31180682</v>
+        <v>38604017</v>
       </c>
       <c r="E789" s="3" t="s">
-        <v>2217</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="790" spans="1:5">
       <c r="A790" s="3" t="s">
-        <v>2185</v>
+        <v>2604</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2186</v>
+        <v>2677</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>2187</v>
+        <v>2678</v>
       </c>
       <c r="D790" s="3">
-        <v>31086874</v>
+        <v>40071547</v>
       </c>
       <c r="E790" s="3" t="s">
-        <v>2218</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="791" spans="1:5">
       <c r="A791" s="3" t="s">
-        <v>2188</v>
+        <v>2605</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>1973</v>
+        <v>2680</v>
       </c>
       <c r="C791" s="3" t="s">
-        <v>2189</v>
+        <v>2681</v>
       </c>
       <c r="D791" s="3">
-        <v>29373009</v>
+        <v>40094427</v>
       </c>
       <c r="E791" s="3" t="s">
-        <v>1975</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="3" t="s">
-        <v>2190</v>
+        <v>2606</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2191</v>
+        <v>2683</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>2192</v>
+        <v>2681</v>
       </c>
       <c r="D792" s="3">
-        <v>24848421</v>
+        <v>40094427</v>
       </c>
       <c r="E792" s="3" t="s">
-        <v>2219</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="793" spans="1:5">
       <c r="A793" s="3" t="s">
-        <v>2193</v>
+        <v>2607</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>2194</v>
+        <v>2684</v>
       </c>
       <c r="C793" s="3" t="s">
-        <v>2195</v>
+        <v>2685</v>
       </c>
       <c r="D793" s="3">
-        <v>16839576</v>
+        <v>36137261</v>
       </c>
       <c r="E793" s="3" t="s">
-        <v>2220</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="794" spans="1:5">
       <c r="A794" s="3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D794" s="3">
+        <v>26469304</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D795" s="3">
+        <v>26469304</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5">
+      <c r="A796" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D796" s="3">
+        <v>26469304</v>
+      </c>
+      <c r="E796" s="3" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5">
+      <c r="A797" s="3" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D797" s="3">
+        <v>40111931</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" s="3" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D798" s="3">
+        <v>40099513</v>
+      </c>
+      <c r="E798" s="3" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5">
+      <c r="A799" s="3" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D799" s="3">
+        <v>40099513</v>
+      </c>
+      <c r="E799" s="3" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="A800" s="3" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D800" s="3">
+        <v>39489701</v>
+      </c>
+      <c r="E800" s="3" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="A801" s="3" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D801" s="3">
+        <v>39489701</v>
+      </c>
+      <c r="E801" s="3" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5">
+      <c r="A802" s="3" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D802" s="3">
+        <v>39489701</v>
+      </c>
+      <c r="E802" s="3" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="A803" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D803" s="4">
+        <v>36524608</v>
+      </c>
+      <c r="E803" s="3" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5">
+      <c r="A804" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D804" s="4">
+        <v>28371074</v>
+      </c>
+      <c r="E804" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5">
+      <c r="A805" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D805" s="3">
+        <v>31535864</v>
+      </c>
+      <c r="E805" s="3" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5">
+      <c r="A806" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D806" s="4">
+        <v>30051576</v>
+      </c>
+      <c r="E806" s="4" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D807" s="3">
+        <v>26340065</v>
+      </c>
+      <c r="E807" s="3" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D808" s="3">
+        <v>26783060</v>
+      </c>
+      <c r="E808" s="3" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="A809" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D809" s="4">
+        <v>26978228</v>
+      </c>
+      <c r="E809" s="3" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5">
+      <c r="A810" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D810" s="3">
+        <v>36484777</v>
+      </c>
+      <c r="E810" s="3" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D811" s="3">
+        <v>36484777</v>
+      </c>
+      <c r="E811" s="3" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5">
+      <c r="A812" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E812" s="3" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E813" s="3" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="A814" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D814" s="3">
+        <v>35017571</v>
+      </c>
+      <c r="E814" s="3" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D815" s="3">
+        <v>34432466</v>
+      </c>
+      <c r="E815" s="3" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="A816" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D816" s="3">
+        <v>33688736</v>
+      </c>
+      <c r="E816" s="3" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D817" s="3">
+        <v>33480256</v>
+      </c>
+      <c r="E817" s="3" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D818" s="3">
+        <v>32286350</v>
+      </c>
+      <c r="E818" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D819" s="3">
+        <v>34430202</v>
+      </c>
+      <c r="E819" s="3" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D820" s="3">
+        <v>18957608</v>
+      </c>
+      <c r="E820" s="3" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="A821" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D821" s="3">
+        <v>29797385</v>
+      </c>
+      <c r="E821" s="3" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="A822" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D822" s="3">
+        <v>29797385</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5">
+      <c r="A823" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D823" s="3">
+        <v>30556556</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5">
+      <c r="A824" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D824" s="3">
+        <v>31180682</v>
+      </c>
+      <c r="E824" s="3" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D825" s="3">
+        <v>31086874</v>
+      </c>
+      <c r="E825" s="3" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" s="3" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D826" s="3">
+        <v>29373009</v>
+      </c>
+      <c r="E826" s="3" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C827" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D827" s="3">
+        <v>24848421</v>
+      </c>
+      <c r="E827" s="3" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="A828" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C828" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D828" s="3">
+        <v>16839576</v>
+      </c>
+      <c r="E828" s="3" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5">
+      <c r="A829" s="3" t="s">
         <v>2196</v>
       </c>
-      <c r="B794" s="3" t="s">
+      <c r="B829" s="3" t="s">
         <v>2197</v>
       </c>
-      <c r="C794" s="3" t="s">
+      <c r="C829" s="3" t="s">
         <v>2198</v>
       </c>
-      <c r="D794" s="3">
+      <c r="D829" s="3">
         <v>19097780</v>
       </c>
-      <c r="E794" s="3" t="s">
+      <c r="E829" s="3" t="s">
         <v>2221</v>
       </c>
     </row>
-    <row r="795" spans="1:5">
-      <c r="A795" s="6" t="s">
+    <row r="830" spans="1:5">
+      <c r="A830" s="6" t="s">
         <v>2226</v>
       </c>
-      <c r="B795" s="6" t="s">
+      <c r="B830" s="6" t="s">
         <v>2227</v>
       </c>
-      <c r="C795" s="6" t="s">
+      <c r="C830" s="6" t="s">
         <v>2236</v>
       </c>
-      <c r="D795" s="3">
+      <c r="D830" s="3">
         <v>32286350</v>
       </c>
-      <c r="E795" s="7" t="s">
+      <c r="E830" s="7" t="s">
         <v>2250</v>
       </c>
     </row>
-    <row r="796" spans="1:5">
-      <c r="A796" s="6" t="s">
+    <row r="831" spans="1:5">
+      <c r="A831" s="6" t="s">
         <v>2228</v>
       </c>
-      <c r="B796" s="6" t="s">
+      <c r="B831" s="6" t="s">
         <v>2237</v>
       </c>
-      <c r="C796" s="6" t="s">
+      <c r="C831" s="6" t="s">
         <v>2238</v>
       </c>
-      <c r="D796" s="3">
+      <c r="D831" s="3">
         <v>32286350</v>
       </c>
-      <c r="E796" s="7" t="s">
+      <c r="E831" s="7" t="s">
         <v>2251</v>
       </c>
     </row>
-    <row r="797" spans="1:5">
-      <c r="A797" s="6" t="s">
+    <row r="832" spans="1:5">
+      <c r="A832" s="6" t="s">
         <v>2229</v>
       </c>
-      <c r="B797" s="6" t="s">
+      <c r="B832" s="6" t="s">
         <v>2230</v>
       </c>
-      <c r="C797" s="6" t="s">
+      <c r="C832" s="6" t="s">
         <v>2239</v>
       </c>
-      <c r="D797" s="3">
+      <c r="D832" s="3">
         <v>32286350</v>
       </c>
-      <c r="E797" s="7" t="s">
+      <c r="E832" s="7" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="798" spans="1:5">
-      <c r="A798" s="6" t="s">
+    <row r="833" spans="1:5">
+      <c r="A833" s="6" t="s">
         <v>2231</v>
       </c>
-      <c r="B798" s="6" t="s">
+      <c r="B833" s="6" t="s">
         <v>2240</v>
       </c>
-      <c r="C798" s="6" t="s">
+      <c r="C833" s="6" t="s">
         <v>2241</v>
       </c>
-      <c r="D798" s="3">
+      <c r="D833" s="3">
         <v>32286350</v>
       </c>
-      <c r="E798" s="7" t="s">
+      <c r="E833" s="7" t="s">
         <v>2253</v>
       </c>
     </row>
-    <row r="799" spans="1:5">
-      <c r="A799" s="6" t="s">
+    <row r="834" spans="1:5">
+      <c r="A834" s="6" t="s">
         <v>2242</v>
       </c>
-      <c r="B799" s="6" t="s">
+      <c r="B834" s="6" t="s">
         <v>2243</v>
       </c>
-      <c r="C799" s="6" t="s">
+      <c r="C834" s="6" t="s">
         <v>2244</v>
       </c>
-      <c r="D799" s="3">
+      <c r="D834" s="3">
         <v>38904208</v>
       </c>
-      <c r="E799" s="7" t="s">
+      <c r="E834" s="7" t="s">
         <v>2254</v>
       </c>
     </row>
-    <row r="800" spans="1:5">
-      <c r="A800" s="6" t="s">
+    <row r="835" spans="1:5">
+      <c r="A835" s="6" t="s">
         <v>2233</v>
       </c>
-      <c r="B800" s="6" t="s">
+      <c r="B835" s="6" t="s">
         <v>2245</v>
       </c>
-      <c r="C800" s="6" t="s">
+      <c r="C835" s="6" t="s">
         <v>2244</v>
       </c>
-      <c r="D800" s="3">
+      <c r="D835" s="3">
         <v>38904208</v>
       </c>
-      <c r="E800" s="7" t="s">
+      <c r="E835" s="7" t="s">
         <v>2254</v>
       </c>
     </row>
-    <row r="801" spans="1:5">
-      <c r="A801" s="6" t="s">
+    <row r="836" spans="1:5">
+      <c r="A836" s="6" t="s">
         <v>2234</v>
       </c>
-      <c r="B801" s="6" t="s">
+      <c r="B836" s="6" t="s">
         <v>2246</v>
       </c>
-      <c r="C801" s="6" t="s">
+      <c r="C836" s="6" t="s">
         <v>2247</v>
       </c>
-      <c r="D801" s="3">
+      <c r="D836" s="3">
         <v>38815056</v>
       </c>
-      <c r="E801" s="7" t="s">
+      <c r="E836" s="7" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="802" spans="1:5">
-      <c r="A802" s="6" t="s">
+    <row r="837" spans="1:5">
+      <c r="A837" s="6" t="s">
         <v>2235</v>
       </c>
-      <c r="B802" s="6" t="s">
+      <c r="B837" s="6" t="s">
         <v>2248</v>
       </c>
-      <c r="C802" s="6" t="s">
+      <c r="C837" s="6" t="s">
         <v>2249</v>
       </c>
-      <c r="D802" s="3">
+      <c r="D837" s="3">
         <v>36879280</v>
       </c>
-      <c r="E802" s="7" t="s">
+      <c r="E837" s="7" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="803" spans="1:5">
-      <c r="A803" s="5"/>
-      <c r="B803" s="5"/>
-      <c r="C803" s="5"/>
-      <c r="D803" s="5"/>
-      <c r="E803" s="5"/>
-    </row>
-    <row r="804" spans="1:5">
-      <c r="A804" s="5"/>
-      <c r="B804" s="5"/>
-      <c r="C804" s="5"/>
-      <c r="D804" s="5"/>
-      <c r="E804" s="5"/>
-    </row>
-    <row r="805" spans="1:5">
-      <c r="A805" s="5"/>
-      <c r="B805" s="5"/>
-      <c r="C805" s="5"/>
-      <c r="D805" s="5"/>
-      <c r="E805" s="5"/>
-    </row>
-    <row r="806" spans="1:5">
-      <c r="A806" s="5"/>
-      <c r="B806" s="5"/>
-      <c r="C806" s="5"/>
-      <c r="D806" s="5"/>
-      <c r="E806" s="5"/>
-    </row>
-    <row r="807" spans="1:5">
-      <c r="A807" s="5"/>
-      <c r="B807" s="5"/>
-      <c r="C807" s="5"/>
-      <c r="D807" s="5"/>
-      <c r="E807" s="5"/>
-    </row>
-    <row r="808" spans="1:5">
-      <c r="A808" s="5"/>
-      <c r="B808" s="5"/>
-      <c r="C808" s="5"/>
-      <c r="D808" s="5"/>
-      <c r="E808" s="5"/>
-    </row>
-    <row r="809" spans="1:5">
-      <c r="A809" s="5"/>
-      <c r="B809" s="5"/>
-      <c r="C809" s="5"/>
-      <c r="D809" s="5"/>
-      <c r="E809" s="5"/>
-    </row>
-    <row r="810" spans="1:5">
-      <c r="A810" s="5"/>
-      <c r="B810" s="5"/>
-      <c r="C810" s="5"/>
-      <c r="D810" s="5"/>
-      <c r="E810" s="5"/>
-    </row>
-    <row r="811" spans="1:5">
-      <c r="A811" s="5"/>
-      <c r="B811" s="5"/>
-      <c r="C811" s="5"/>
-      <c r="D811" s="5"/>
-      <c r="E811" s="5"/>
-    </row>
-    <row r="812" spans="1:5">
-      <c r="A812" s="5"/>
-      <c r="B812" s="5"/>
-      <c r="C812" s="5"/>
-      <c r="D812" s="5"/>
-      <c r="E812" s="5"/>
-    </row>
-    <row r="813" spans="1:5">
-      <c r="A813" s="5"/>
-      <c r="B813" s="5"/>
-      <c r="C813" s="5"/>
-      <c r="D813" s="5"/>
-      <c r="E813" s="5"/>
-    </row>
-    <row r="814" spans="1:5">
-      <c r="A814" s="5"/>
-      <c r="B814" s="5"/>
-      <c r="C814" s="5"/>
-      <c r="D814" s="5"/>
-      <c r="E814" s="5"/>
-    </row>
-    <row r="815" spans="1:5">
-      <c r="A815" s="5"/>
-      <c r="B815" s="5"/>
-      <c r="C815" s="5"/>
-      <c r="D815" s="5"/>
-      <c r="E815" s="5"/>
-    </row>
-    <row r="816" spans="1:5">
-      <c r="A816" s="5"/>
-      <c r="B816" s="5"/>
-      <c r="C816" s="5"/>
-      <c r="D816" s="5"/>
-      <c r="E816" s="5"/>
-    </row>
-    <row r="817" spans="1:5">
-      <c r="A817" s="5"/>
-      <c r="B817" s="5"/>
-      <c r="C817" s="5"/>
-      <c r="D817" s="5"/>
-      <c r="E817" s="5"/>
-    </row>
-    <row r="818" spans="1:5">
-      <c r="A818" s="5"/>
-      <c r="B818" s="5"/>
-      <c r="C818" s="5"/>
-      <c r="D818" s="5"/>
-      <c r="E818" s="5"/>
-    </row>
-    <row r="819" spans="1:5">
-      <c r="A819" s="5"/>
-      <c r="B819" s="5"/>
-      <c r="C819" s="5"/>
-      <c r="D819" s="5"/>
-      <c r="E819" s="5"/>
-    </row>
-    <row r="820" spans="1:5">
-      <c r="A820" s="5"/>
-      <c r="B820" s="5"/>
-      <c r="C820" s="5"/>
-      <c r="D820" s="5"/>
-      <c r="E820" s="5"/>
-    </row>
-    <row r="821" spans="1:5">
-      <c r="A821" s="5"/>
-      <c r="B821" s="5"/>
-      <c r="C821" s="5"/>
-      <c r="D821" s="5"/>
-      <c r="E821" s="5"/>
-    </row>
-    <row r="822" spans="1:5">
-      <c r="A822" s="5"/>
-      <c r="B822" s="5"/>
-      <c r="C822" s="5"/>
-      <c r="D822" s="5"/>
-      <c r="E822" s="5"/>
-    </row>
-    <row r="823" spans="1:5">
-      <c r="A823" s="5"/>
-      <c r="B823" s="5"/>
-      <c r="C823" s="5"/>
-      <c r="D823" s="5"/>
-      <c r="E823" s="5"/>
-    </row>
-    <row r="824" spans="1:5">
-      <c r="A824" s="5"/>
-      <c r="B824" s="5"/>
-      <c r="C824" s="5"/>
-      <c r="D824" s="5"/>
-      <c r="E824" s="5"/>
-    </row>
-    <row r="825" spans="1:5">
-      <c r="A825" s="5"/>
-      <c r="B825" s="5"/>
-      <c r="C825" s="5"/>
-      <c r="D825" s="5"/>
-      <c r="E825" s="5"/>
-    </row>
-    <row r="826" spans="1:5">
-      <c r="A826" s="5"/>
-      <c r="B826" s="5"/>
-      <c r="C826" s="5"/>
-      <c r="D826" s="5"/>
-      <c r="E826" s="5"/>
-    </row>
-    <row r="827" spans="1:5">
-      <c r="A827" s="5"/>
-      <c r="B827" s="5"/>
-      <c r="C827" s="5"/>
-      <c r="D827" s="5"/>
-      <c r="E827" s="5"/>
-    </row>
-    <row r="828" spans="1:5">
-      <c r="A828" s="5"/>
-      <c r="B828" s="5"/>
-      <c r="C828" s="5"/>
-      <c r="D828" s="5"/>
-      <c r="E828" s="5"/>
-    </row>
-    <row r="829" spans="1:5">
-      <c r="A829" s="5"/>
-      <c r="B829" s="5"/>
-      <c r="C829" s="5"/>
-      <c r="D829" s="5"/>
-      <c r="E829" s="5"/>
-    </row>
-    <row r="830" spans="1:5">
-      <c r="A830" s="5"/>
-      <c r="B830" s="5"/>
-      <c r="C830" s="5"/>
-      <c r="D830" s="5"/>
-      <c r="E830" s="5"/>
-    </row>
-    <row r="831" spans="1:5">
-      <c r="A831" s="5"/>
-      <c r="B831" s="5"/>
-      <c r="C831" s="5"/>
-      <c r="D831" s="5"/>
-      <c r="E831" s="5"/>
-    </row>
-    <row r="832" spans="1:5">
-      <c r="A832" s="5"/>
-      <c r="B832" s="5"/>
-      <c r="C832" s="5"/>
-      <c r="D832" s="5"/>
-      <c r="E832" s="5"/>
-    </row>
-    <row r="833" spans="1:5">
-      <c r="A833" s="5"/>
-      <c r="B833" s="5"/>
-      <c r="C833" s="5"/>
-      <c r="D833" s="5"/>
-      <c r="E833" s="5"/>
-    </row>
-    <row r="834" spans="1:5">
-      <c r="A834" s="5"/>
-      <c r="B834" s="5"/>
-      <c r="C834" s="5"/>
-      <c r="D834" s="5"/>
-      <c r="E834" s="5"/>
-    </row>
-    <row r="835" spans="1:5">
-      <c r="A835" s="5"/>
-      <c r="B835" s="5"/>
-      <c r="C835" s="5"/>
-      <c r="D835" s="5"/>
-      <c r="E835" s="5"/>
-    </row>
-    <row r="836" spans="1:5">
-      <c r="A836" s="5"/>
-      <c r="B836" s="5"/>
-      <c r="C836" s="5"/>
-      <c r="D836" s="5"/>
-      <c r="E836" s="5"/>
-    </row>
-    <row r="837" spans="1:5">
-      <c r="A837" s="5"/>
-      <c r="B837" s="5"/>
-      <c r="C837" s="5"/>
-      <c r="D837" s="5"/>
-      <c r="E837" s="5"/>
-    </row>
     <row r="838" spans="1:5">
-      <c r="A838" s="5"/>
-      <c r="B838" s="5"/>
-      <c r="C838" s="5"/>
-      <c r="D838" s="5"/>
-      <c r="E838" s="5"/>
+      <c r="A838" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D838" s="3">
+        <v>39454086</v>
+      </c>
+      <c r="E838" s="3" t="s">
+        <v>2714</v>
+      </c>
     </row>
     <row r="839" spans="1:5">
-      <c r="A839" s="5"/>
-      <c r="B839" s="5"/>
-      <c r="C839" s="5"/>
-      <c r="D839" s="5"/>
-      <c r="E839" s="5"/>
+      <c r="A839" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E839" s="3" t="s">
+        <v>2717</v>
+      </c>
     </row>
     <row r="840" spans="1:5">
-      <c r="A840" s="5"/>
-      <c r="B840" s="5"/>
-      <c r="C840" s="5"/>
-      <c r="D840" s="5"/>
-      <c r="E840" s="5"/>
+      <c r="A840" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D840" s="3">
+        <v>38590534</v>
+      </c>
+      <c r="E840" s="3" t="s">
+        <v>2720</v>
+      </c>
     </row>
     <row r="841" spans="1:5">
-      <c r="A841" s="5"/>
-      <c r="B841" s="5"/>
-      <c r="C841" s="5"/>
-      <c r="D841" s="5"/>
-      <c r="E841" s="5"/>
+      <c r="A841" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D841" s="3">
+        <v>38590534</v>
+      </c>
+      <c r="E841" s="3" t="s">
+        <v>2720</v>
+      </c>
     </row>
     <row r="842" spans="1:5">
-      <c r="A842" s="5"/>
-      <c r="B842" s="5"/>
-      <c r="C842" s="5"/>
-      <c r="D842" s="5"/>
-      <c r="E842" s="5"/>
+      <c r="A842" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D842" s="3">
+        <v>38590534</v>
+      </c>
+      <c r="E842" s="3" t="s">
+        <v>2720</v>
+      </c>
     </row>
     <row r="843" spans="1:5">
-      <c r="A843" s="5"/>
-      <c r="B843" s="5"/>
-      <c r="C843" s="5"/>
-      <c r="D843" s="5"/>
-      <c r="E843" s="5"/>
+      <c r="A843" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D843" s="3">
+        <v>39617723</v>
+      </c>
+      <c r="E843" s="3" t="s">
+        <v>2726</v>
+      </c>
     </row>
     <row r="844" spans="1:5">
-      <c r="A844" s="5"/>
-      <c r="B844" s="5"/>
-      <c r="C844" s="5"/>
-      <c r="D844" s="5"/>
-      <c r="E844" s="5"/>
+      <c r="A844" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D844" s="3">
+        <v>39881635</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>2729</v>
+      </c>
     </row>
     <row r="845" spans="1:5">
       <c r="A845" s="5"/>
@@ -24180,6 +25047,251 @@
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
+    </row>
+    <row r="885" spans="1:5">
+      <c r="A885" s="5"/>
+      <c r="B885" s="5"/>
+      <c r="C885" s="5"/>
+      <c r="D885" s="5"/>
+      <c r="E885" s="5"/>
+    </row>
+    <row r="886" spans="1:5">
+      <c r="A886" s="5"/>
+      <c r="B886" s="5"/>
+      <c r="C886" s="5"/>
+      <c r="D886" s="5"/>
+      <c r="E886" s="5"/>
+    </row>
+    <row r="887" spans="1:5">
+      <c r="A887" s="5"/>
+      <c r="B887" s="5"/>
+      <c r="C887" s="5"/>
+      <c r="D887" s="5"/>
+      <c r="E887" s="5"/>
+    </row>
+    <row r="888" spans="1:5">
+      <c r="A888" s="5"/>
+      <c r="B888" s="5"/>
+      <c r="C888" s="5"/>
+      <c r="D888" s="5"/>
+      <c r="E888" s="5"/>
+    </row>
+    <row r="889" spans="1:5">
+      <c r="A889" s="5"/>
+      <c r="B889" s="5"/>
+      <c r="C889" s="5"/>
+      <c r="D889" s="5"/>
+      <c r="E889" s="5"/>
+    </row>
+    <row r="890" spans="1:5">
+      <c r="A890" s="5"/>
+      <c r="B890" s="5"/>
+      <c r="C890" s="5"/>
+      <c r="D890" s="5"/>
+      <c r="E890" s="5"/>
+    </row>
+    <row r="891" spans="1:5">
+      <c r="A891" s="5"/>
+      <c r="B891" s="5"/>
+      <c r="C891" s="5"/>
+      <c r="D891" s="5"/>
+      <c r="E891" s="5"/>
+    </row>
+    <row r="892" spans="1:5">
+      <c r="A892" s="5"/>
+      <c r="B892" s="5"/>
+      <c r="C892" s="5"/>
+      <c r="D892" s="5"/>
+      <c r="E892" s="5"/>
+    </row>
+    <row r="893" spans="1:5">
+      <c r="A893" s="5"/>
+      <c r="B893" s="5"/>
+      <c r="C893" s="5"/>
+      <c r="D893" s="5"/>
+      <c r="E893" s="5"/>
+    </row>
+    <row r="894" spans="1:5">
+      <c r="A894" s="5"/>
+      <c r="B894" s="5"/>
+      <c r="C894" s="5"/>
+      <c r="D894" s="5"/>
+      <c r="E894" s="5"/>
+    </row>
+    <row r="895" spans="1:5">
+      <c r="A895" s="5"/>
+      <c r="B895" s="5"/>
+      <c r="C895" s="5"/>
+      <c r="D895" s="5"/>
+      <c r="E895" s="5"/>
+    </row>
+    <row r="896" spans="1:5">
+      <c r="A896" s="5"/>
+      <c r="B896" s="5"/>
+      <c r="C896" s="5"/>
+      <c r="D896" s="5"/>
+      <c r="E896" s="5"/>
+    </row>
+    <row r="897" spans="1:5">
+      <c r="A897" s="5"/>
+      <c r="B897" s="5"/>
+      <c r="C897" s="5"/>
+      <c r="D897" s="5"/>
+      <c r="E897" s="5"/>
+    </row>
+    <row r="898" spans="1:5">
+      <c r="A898" s="5"/>
+      <c r="B898" s="5"/>
+      <c r="C898" s="5"/>
+      <c r="D898" s="5"/>
+      <c r="E898" s="5"/>
+    </row>
+    <row r="899" spans="1:5">
+      <c r="A899" s="5"/>
+      <c r="B899" s="5"/>
+      <c r="C899" s="5"/>
+      <c r="D899" s="5"/>
+      <c r="E899" s="5"/>
+    </row>
+    <row r="900" spans="1:5">
+      <c r="A900" s="5"/>
+      <c r="B900" s="5"/>
+      <c r="C900" s="5"/>
+      <c r="D900" s="5"/>
+      <c r="E900" s="5"/>
+    </row>
+    <row r="901" spans="1:5">
+      <c r="A901" s="5"/>
+      <c r="B901" s="5"/>
+      <c r="C901" s="5"/>
+      <c r="D901" s="5"/>
+      <c r="E901" s="5"/>
+    </row>
+    <row r="902" spans="1:5">
+      <c r="A902" s="5"/>
+      <c r="B902" s="5"/>
+      <c r="C902" s="5"/>
+      <c r="D902" s="5"/>
+      <c r="E902" s="5"/>
+    </row>
+    <row r="903" spans="1:5">
+      <c r="A903" s="5"/>
+      <c r="B903" s="5"/>
+      <c r="C903" s="5"/>
+      <c r="D903" s="5"/>
+      <c r="E903" s="5"/>
+    </row>
+    <row r="904" spans="1:5">
+      <c r="A904" s="5"/>
+      <c r="B904" s="5"/>
+      <c r="C904" s="5"/>
+      <c r="D904" s="5"/>
+      <c r="E904" s="5"/>
+    </row>
+    <row r="905" spans="1:5">
+      <c r="A905" s="5"/>
+      <c r="B905" s="5"/>
+      <c r="C905" s="5"/>
+      <c r="D905" s="5"/>
+      <c r="E905" s="5"/>
+    </row>
+    <row r="906" spans="1:5">
+      <c r="A906" s="5"/>
+      <c r="B906" s="5"/>
+      <c r="C906" s="5"/>
+      <c r="D906" s="5"/>
+      <c r="E906" s="5"/>
+    </row>
+    <row r="907" spans="1:5">
+      <c r="A907" s="5"/>
+      <c r="B907" s="5"/>
+      <c r="C907" s="5"/>
+      <c r="D907" s="5"/>
+      <c r="E907" s="5"/>
+    </row>
+    <row r="908" spans="1:5">
+      <c r="A908" s="5"/>
+      <c r="B908" s="5"/>
+      <c r="C908" s="5"/>
+      <c r="D908" s="5"/>
+      <c r="E908" s="5"/>
+    </row>
+    <row r="909" spans="1:5">
+      <c r="A909" s="5"/>
+      <c r="B909" s="5"/>
+      <c r="C909" s="5"/>
+      <c r="D909" s="5"/>
+      <c r="E909" s="5"/>
+    </row>
+    <row r="910" spans="1:5">
+      <c r="A910" s="5"/>
+      <c r="B910" s="5"/>
+      <c r="C910" s="5"/>
+      <c r="D910" s="5"/>
+      <c r="E910" s="5"/>
+    </row>
+    <row r="911" spans="1:5">
+      <c r="A911" s="5"/>
+      <c r="B911" s="5"/>
+      <c r="C911" s="5"/>
+      <c r="D911" s="5"/>
+      <c r="E911" s="5"/>
+    </row>
+    <row r="912" spans="1:5">
+      <c r="A912" s="5"/>
+      <c r="B912" s="5"/>
+      <c r="C912" s="5"/>
+      <c r="D912" s="5"/>
+      <c r="E912" s="5"/>
+    </row>
+    <row r="913" spans="1:5">
+      <c r="A913" s="5"/>
+      <c r="B913" s="5"/>
+      <c r="C913" s="5"/>
+      <c r="D913" s="5"/>
+      <c r="E913" s="5"/>
+    </row>
+    <row r="914" spans="1:5">
+      <c r="A914" s="5"/>
+      <c r="B914" s="5"/>
+      <c r="C914" s="5"/>
+      <c r="D914" s="5"/>
+      <c r="E914" s="5"/>
+    </row>
+    <row r="915" spans="1:5">
+      <c r="A915" s="5"/>
+      <c r="B915" s="5"/>
+      <c r="C915" s="5"/>
+      <c r="D915" s="5"/>
+      <c r="E915" s="5"/>
+    </row>
+    <row r="916" spans="1:5">
+      <c r="A916" s="5"/>
+      <c r="B916" s="5"/>
+      <c r="C916" s="5"/>
+      <c r="D916" s="5"/>
+      <c r="E916" s="5"/>
+    </row>
+    <row r="917" spans="1:5">
+      <c r="A917" s="5"/>
+      <c r="B917" s="5"/>
+      <c r="C917" s="5"/>
+      <c r="D917" s="5"/>
+      <c r="E917" s="5"/>
+    </row>
+    <row r="918" spans="1:5">
+      <c r="A918" s="5"/>
+      <c r="B918" s="5"/>
+      <c r="C918" s="5"/>
+      <c r="D918" s="5"/>
+      <c r="E918" s="5"/>
+    </row>
+    <row r="919" spans="1:5">
+      <c r="A919" s="5"/>
+      <c r="B919" s="5"/>
+      <c r="C919" s="5"/>
+      <c r="D919" s="5"/>
+      <c r="E919" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fungal_BGCs/fungal_BGCs.xlsx
+++ b/fungal_BGCs/fungal_BGCs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymatsuda/Documents/GitHub/funbgcex-data/fungal_BGCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1935C2-2719-9F4E-AACE-077CDB334491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E56DE9-C1C9-3247-8289-7CD0DEA77422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="2320" windowWidth="37540" windowHeight="18940" xr2:uid="{262B9C92-DFEA-AD46-B5ED-DE92F47A4C4A}"/>
+    <workbookView xWindow="7260" yWindow="4660" windowWidth="37540" windowHeight="18940" xr2:uid="{262B9C92-DFEA-AD46-B5ED-DE92F47A4C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="fungal BGCs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fungal BGCs'!$A$2:$E$884</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fungal BGCs'!$A$2:$E$886</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="2730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="2738">
   <si>
     <t>FBGC00001</t>
     <phoneticPr fontId="1"/>
@@ -9947,6 +9947,30 @@
   </si>
   <si>
     <t>10.1021/acs.jnatprod.4c01190</t>
+  </si>
+  <si>
+    <t>FBGC00801</t>
+  </si>
+  <si>
+    <t>FBGC00802</t>
+  </si>
+  <si>
+    <t>6-pentyl-alpha-pyrone</t>
+  </si>
+  <si>
+    <t>Trichoderma atroviride P1</t>
+  </si>
+  <si>
+    <t>10.1186/s12934-025-02718-9</t>
+  </si>
+  <si>
+    <t>sordarin</t>
+  </si>
+  <si>
+    <t>Talaromyces adpressus</t>
+  </si>
+  <si>
+    <t>10.1186/s40643-025-00864-x</t>
   </si>
 </sst>
 </file>
@@ -10412,7 +10436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE711D-66D2-B242-9BC0-F7F6F031DFD4}">
-  <dimension ref="A1:E919"/>
+  <dimension ref="A1:E921"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -24056,676 +24080,676 @@
     </row>
     <row r="803" spans="1:5">
       <c r="A803" s="3" t="s">
-        <v>2124</v>
+        <v>2730</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>2125</v>
+        <v>2732</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D803" s="4">
-        <v>36524608</v>
+        <v>2733</v>
+      </c>
+      <c r="D803" s="3">
+        <v>40259335</v>
       </c>
       <c r="E803" s="3" t="s">
-        <v>2200</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="3" t="s">
-        <v>2127</v>
+        <v>2731</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2128</v>
+        <v>2735</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D804" s="4">
-        <v>28371074</v>
+        <v>2736</v>
+      </c>
+      <c r="D804" s="3">
+        <v>40246774</v>
       </c>
       <c r="E804" s="3" t="s">
-        <v>2201</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="805" spans="1:5">
       <c r="A805" s="3" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>2131</v>
-      </c>
-      <c r="D805" s="3">
-        <v>31535864</v>
+        <v>2126</v>
+      </c>
+      <c r="D805" s="4">
+        <v>36524608</v>
       </c>
       <c r="E805" s="3" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="806" spans="1:5">
       <c r="A806" s="3" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="D806" s="4">
-        <v>30051576</v>
-      </c>
-      <c r="E806" s="4" t="s">
-        <v>2203</v>
+        <v>28371074</v>
+      </c>
+      <c r="E806" s="3" t="s">
+        <v>2201</v>
       </c>
     </row>
     <row r="807" spans="1:5">
       <c r="A807" s="3" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>2050</v>
+        <v>2131</v>
       </c>
       <c r="D807" s="3">
-        <v>26340065</v>
+        <v>31535864</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>1794</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="808" spans="1:5">
       <c r="A808" s="3" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D808" s="3">
-        <v>26783060</v>
-      </c>
-      <c r="E808" s="3" t="s">
-        <v>2204</v>
+        <v>2134</v>
+      </c>
+      <c r="D808" s="4">
+        <v>30051576</v>
+      </c>
+      <c r="E808" s="4" t="s">
+        <v>2203</v>
       </c>
     </row>
     <row r="809" spans="1:5">
       <c r="A809" s="3" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D809" s="4">
-        <v>26978228</v>
+        <v>2050</v>
+      </c>
+      <c r="D809" s="3">
+        <v>26340065</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>2205</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="810" spans="1:5">
       <c r="A810" s="3" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="D810" s="3">
-        <v>36484777</v>
+        <v>26783060</v>
       </c>
       <c r="E810" s="3" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="811" spans="1:5">
       <c r="A811" s="3" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>2145</v>
-      </c>
-      <c r="D811" s="3">
-        <v>36484777</v>
+        <v>2142</v>
+      </c>
+      <c r="D811" s="4">
+        <v>26978228</v>
       </c>
       <c r="E811" s="3" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="812" spans="1:5">
       <c r="A812" s="3" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D812" s="3" t="s">
-        <v>357</v>
+        <v>2145</v>
+      </c>
+      <c r="D812" s="3">
+        <v>36484777</v>
       </c>
       <c r="E812" s="3" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="3" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D813" s="3" t="s">
-        <v>357</v>
+        <v>2145</v>
+      </c>
+      <c r="D813" s="3">
+        <v>36484777</v>
       </c>
       <c r="E813" s="3" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="814" spans="1:5">
       <c r="A814" s="3" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>2156</v>
-      </c>
-      <c r="D814" s="3">
-        <v>35017571</v>
+        <v>2150</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E814" s="3" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="815" spans="1:5">
       <c r="A815" s="3" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>2159</v>
-      </c>
-      <c r="D815" s="3">
-        <v>34432466</v>
+        <v>2153</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E815" s="3" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="816" spans="1:5">
       <c r="A816" s="3" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="D816" s="3">
-        <v>33688736</v>
+        <v>35017571</v>
       </c>
       <c r="E816" s="3" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="817" spans="1:5">
       <c r="A817" s="3" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="D817" s="3">
-        <v>33480256</v>
+        <v>34432466</v>
       </c>
       <c r="E817" s="3" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="818" spans="1:5">
       <c r="A818" s="3" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="D818" s="3">
-        <v>32286350</v>
+        <v>33688736</v>
       </c>
       <c r="E818" s="3" t="s">
-        <v>862</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="819" spans="1:5">
       <c r="A819" s="3" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>2147</v>
+        <v>2164</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="D819" s="3">
-        <v>34430202</v>
+        <v>33480256</v>
       </c>
       <c r="E819" s="3" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="820" spans="1:5">
       <c r="A820" s="3" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="C820" s="3" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="D820" s="3">
-        <v>18957608</v>
+        <v>32286350</v>
       </c>
       <c r="E820" s="3" t="s">
-        <v>2214</v>
+        <v>862</v>
       </c>
     </row>
     <row r="821" spans="1:5">
       <c r="A821" s="3" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>2175</v>
+        <v>2147</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="D821" s="3">
-        <v>29797385</v>
+        <v>34430202</v>
       </c>
       <c r="E821" s="3" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="822" spans="1:5">
       <c r="A822" s="3" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="C822" s="3" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="D822" s="3">
-        <v>29797385</v>
+        <v>18957608</v>
       </c>
       <c r="E822" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="823" spans="1:5">
       <c r="A823" s="3" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="C823" s="3" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="D823" s="3">
-        <v>30556556</v>
+        <v>29797385</v>
       </c>
       <c r="E823" s="3" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="824" spans="1:5">
       <c r="A824" s="3" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="C824" s="3" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="D824" s="3">
-        <v>31180682</v>
+        <v>29797385</v>
       </c>
       <c r="E824" s="3" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="825" spans="1:5">
       <c r="A825" s="3" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="C825" s="3" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="D825" s="3">
-        <v>31086874</v>
+        <v>30556556</v>
       </c>
       <c r="E825" s="3" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="826" spans="1:5">
       <c r="A826" s="3" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>1973</v>
+        <v>2183</v>
       </c>
       <c r="C826" s="3" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="D826" s="3">
-        <v>29373009</v>
+        <v>31180682</v>
       </c>
       <c r="E826" s="3" t="s">
-        <v>1975</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="827" spans="1:5">
       <c r="A827" s="3" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="C827" s="3" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="D827" s="3">
-        <v>24848421</v>
+        <v>31086874</v>
       </c>
       <c r="E827" s="3" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="828" spans="1:5">
       <c r="A828" s="3" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>2194</v>
+        <v>1973</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="D828" s="3">
-        <v>16839576</v>
+        <v>29373009</v>
       </c>
       <c r="E828" s="3" t="s">
-        <v>2220</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="829" spans="1:5">
       <c r="A829" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C829" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D829" s="3">
+        <v>24848421</v>
+      </c>
+      <c r="E829" s="3" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5">
+      <c r="A830" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C830" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D830" s="3">
+        <v>16839576</v>
+      </c>
+      <c r="E830" s="3" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5">
+      <c r="A831" s="3" t="s">
         <v>2196</v>
       </c>
-      <c r="B829" s="3" t="s">
+      <c r="B831" s="3" t="s">
         <v>2197</v>
       </c>
-      <c r="C829" s="3" t="s">
+      <c r="C831" s="3" t="s">
         <v>2198</v>
       </c>
-      <c r="D829" s="3">
+      <c r="D831" s="3">
         <v>19097780</v>
       </c>
-      <c r="E829" s="3" t="s">
+      <c r="E831" s="3" t="s">
         <v>2221</v>
-      </c>
-    </row>
-    <row r="830" spans="1:5">
-      <c r="A830" s="6" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B830" s="6" t="s">
-        <v>2227</v>
-      </c>
-      <c r="C830" s="6" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D830" s="3">
-        <v>32286350</v>
-      </c>
-      <c r="E830" s="7" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="831" spans="1:5">
-      <c r="A831" s="6" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B831" s="6" t="s">
-        <v>2237</v>
-      </c>
-      <c r="C831" s="6" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D831" s="3">
-        <v>32286350</v>
-      </c>
-      <c r="E831" s="7" t="s">
-        <v>2251</v>
       </c>
     </row>
     <row r="832" spans="1:5">
       <c r="A832" s="6" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="B832" s="6" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="C832" s="6" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D832" s="3">
         <v>32286350</v>
       </c>
       <c r="E832" s="7" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="833" spans="1:5">
       <c r="A833" s="6" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="B833" s="6" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C833" s="6" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="D833" s="3">
         <v>32286350</v>
       </c>
       <c r="E833" s="7" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="834" spans="1:5">
       <c r="A834" s="6" t="s">
-        <v>2242</v>
+        <v>2229</v>
       </c>
       <c r="B834" s="6" t="s">
-        <v>2243</v>
+        <v>2230</v>
       </c>
       <c r="C834" s="6" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="D834" s="3">
-        <v>38904208</v>
+        <v>32286350</v>
       </c>
       <c r="E834" s="7" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="835" spans="1:5">
       <c r="A835" s="6" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B835" s="6" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="C835" s="6" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D835" s="3">
-        <v>38904208</v>
+        <v>32286350</v>
       </c>
       <c r="E835" s="7" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="836" spans="1:5">
       <c r="A836" s="6" t="s">
-        <v>2234</v>
+        <v>2242</v>
       </c>
       <c r="B836" s="6" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="C836" s="6" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="D836" s="3">
-        <v>38815056</v>
+        <v>38904208</v>
       </c>
       <c r="E836" s="7" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="837" spans="1:5">
       <c r="A837" s="6" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B837" s="6" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C837" s="6" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D837" s="3">
+        <v>38904208</v>
+      </c>
+      <c r="E837" s="7" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5">
+      <c r="A838" s="6" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B838" s="6" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C838" s="6" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D838" s="3">
+        <v>38815056</v>
+      </c>
+      <c r="E838" s="7" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" s="6" t="s">
         <v>2235</v>
       </c>
-      <c r="B837" s="6" t="s">
+      <c r="B839" s="6" t="s">
         <v>2248</v>
       </c>
-      <c r="C837" s="6" t="s">
+      <c r="C839" s="6" t="s">
         <v>2249</v>
       </c>
-      <c r="D837" s="3">
+      <c r="D839" s="3">
         <v>36879280</v>
       </c>
-      <c r="E837" s="7" t="s">
+      <c r="E839" s="7" t="s">
         <v>2256</v>
-      </c>
-    </row>
-    <row r="838" spans="1:5">
-      <c r="A838" s="3" t="s">
-        <v>2706</v>
-      </c>
-      <c r="B838" s="3" t="s">
-        <v>2712</v>
-      </c>
-      <c r="C838" s="3" t="s">
-        <v>2713</v>
-      </c>
-      <c r="D838" s="3">
-        <v>39454086</v>
-      </c>
-      <c r="E838" s="3" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="839" spans="1:5">
-      <c r="A839" s="3" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B839" s="3" t="s">
-        <v>2715</v>
-      </c>
-      <c r="C839" s="3" t="s">
-        <v>2716</v>
-      </c>
-      <c r="D839" s="3" t="s">
-        <v>2578</v>
-      </c>
-      <c r="E839" s="3" t="s">
-        <v>2717</v>
       </c>
     </row>
     <row r="840" spans="1:5">
       <c r="A840" s="3" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="C840" s="3" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="D840" s="3">
-        <v>38590534</v>
+        <v>39454086</v>
       </c>
       <c r="E840" s="3" t="s">
-        <v>2720</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="841" spans="1:5">
       <c r="A841" s="3" t="s">
-        <v>2721</v>
+        <v>2707</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>2722</v>
-      </c>
-      <c r="D841" s="3">
-        <v>38590534</v>
+        <v>2716</v>
+      </c>
+      <c r="D841" s="3" t="s">
+        <v>2578</v>
       </c>
       <c r="E841" s="3" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="842" spans="1:5">
       <c r="A842" s="3" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>2718</v>
       </c>
       <c r="C842" s="3" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
       <c r="D842" s="3">
         <v>38590534</v>
@@ -24736,51 +24760,71 @@
     </row>
     <row r="843" spans="1:5">
       <c r="A843" s="3" t="s">
-        <v>2710</v>
+        <v>2721</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>2724</v>
+        <v>2718</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="D843" s="3">
-        <v>39617723</v>
+        <v>38590534</v>
       </c>
       <c r="E843" s="3" t="s">
-        <v>2726</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="844" spans="1:5">
       <c r="A844" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D844" s="3">
+        <v>38590534</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="A845" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D845" s="3">
+        <v>39617723</v>
+      </c>
+      <c r="E845" s="3" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5">
+      <c r="A846" s="3" t="s">
         <v>2711</v>
       </c>
-      <c r="B844" s="3" t="s">
+      <c r="B846" s="3" t="s">
         <v>2727</v>
       </c>
-      <c r="C844" s="3" t="s">
+      <c r="C846" s="3" t="s">
         <v>2728</v>
       </c>
-      <c r="D844" s="3">
+      <c r="D846" s="3">
         <v>39881635</v>
       </c>
-      <c r="E844" s="3" t="s">
+      <c r="E846" s="3" t="s">
         <v>2729</v>
       </c>
-    </row>
-    <row r="845" spans="1:5">
-      <c r="A845" s="5"/>
-      <c r="B845" s="5"/>
-      <c r="C845" s="5"/>
-      <c r="D845" s="5"/>
-      <c r="E845" s="5"/>
-    </row>
-    <row r="846" spans="1:5">
-      <c r="A846" s="5"/>
-      <c r="B846" s="5"/>
-      <c r="C846" s="5"/>
-      <c r="D846" s="5"/>
-      <c r="E846" s="5"/>
     </row>
     <row r="847" spans="1:5">
       <c r="A847" s="5"/>
@@ -25292,6 +25336,20 @@
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
       <c r="E919" s="5"/>
+    </row>
+    <row r="920" spans="1:5">
+      <c r="A920" s="5"/>
+      <c r="B920" s="5"/>
+      <c r="C920" s="5"/>
+      <c r="D920" s="5"/>
+      <c r="E920" s="5"/>
+    </row>
+    <row r="921" spans="1:5">
+      <c r="A921" s="5"/>
+      <c r="B921" s="5"/>
+      <c r="C921" s="5"/>
+      <c r="D921" s="5"/>
+      <c r="E921" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
